--- a/计算表1.xlsx
+++ b/计算表1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="323">
   <si>
     <t>01-0202975-00</t>
   </si>
@@ -976,6 +976,27 @@
   </si>
   <si>
     <t>61188702:00AC88BC</t>
+  </si>
+  <si>
+    <t>61188702:00A9870E</t>
+  </si>
+  <si>
+    <t>61188702:00A9559E</t>
+  </si>
+  <si>
+    <t>61188702:00A9565A</t>
+  </si>
+  <si>
+    <t>61188702:00AA3FE8</t>
+  </si>
+  <si>
+    <t>61188702:00A986F3</t>
+  </si>
+  <si>
+    <t>61188702:00AE8543</t>
+  </si>
+  <si>
+    <t>61188702:00AE97C8</t>
   </si>
 </sst>
 </file>
@@ -12784,8 +12805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R90" sqref="R90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12967,20 +12988,20 @@
       </c>
       <c r="R3" s="34">
         <f>R5-R4</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S3" s="34">
         <f>S5-S4</f>
-        <v>398143</v>
+        <v>183946</v>
       </c>
       <c r="T3" s="34">
         <f>S3/R3</f>
-        <v>30626.384615384617</v>
+        <v>30657.666666666668</v>
       </c>
       <c r="U3" s="34"/>
       <c r="V3" s="34">
         <f>S3*50</f>
-        <v>19907150</v>
+        <v>9197300</v>
       </c>
       <c r="W3" s="34"/>
       <c r="X3" s="34"/>
@@ -13039,20 +13060,20 @@
       </c>
       <c r="R4" s="34">
         <f>SUM(C6:C140)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="S4" s="34">
         <f>SUM(P6:P140)</f>
-        <v>1378689</v>
+        <v>1592886</v>
       </c>
       <c r="T4" s="34">
         <f>S4/R4</f>
-        <v>30637.533333333333</v>
+        <v>30632.423076923078</v>
       </c>
       <c r="U4" s="34"/>
       <c r="V4" s="34">
         <f>R4*67.08</f>
-        <v>3018.6</v>
+        <v>3488.16</v>
       </c>
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
@@ -13124,11 +13145,11 @@
       </c>
       <c r="W5" s="34">
         <f>V3-V5</f>
-        <v>19903259.359999999</v>
+        <v>9193409.3599999994</v>
       </c>
       <c r="X5" s="34">
         <f>W5/R5</f>
-        <v>343159.644137931</v>
+        <v>158507.05793103448</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -14679,24 +14700,24 @@
       </c>
       <c r="R34" s="19">
         <f>R36-R35</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S34" s="19">
         <f>S36-S35</f>
-        <v>397712</v>
+        <v>183515</v>
       </c>
       <c r="T34" s="19">
         <f>S34/R34</f>
-        <v>30593.23076923077</v>
+        <v>30585.833333333332</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19">
         <f>S34*50</f>
-        <v>19885600</v>
+        <v>9175750</v>
       </c>
       <c r="W34" s="19">
         <f>V32-V34</f>
-        <v>-19885600</v>
+        <v>-9175750</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -14749,15 +14770,15 @@
       </c>
       <c r="R35" s="19">
         <f>SUM(C36:C146)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S35" s="19">
         <f>SUM(P35:P124)</f>
-        <v>888441</v>
+        <v>1102638</v>
       </c>
       <c r="T35" s="19">
         <f>S35/R35</f>
-        <v>30635.896551724138</v>
+        <v>30628.833333333332</v>
       </c>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
@@ -14830,7 +14851,7 @@
       </c>
       <c r="W36" s="19">
         <f>V34-V36</f>
-        <v>19882782.640000001</v>
+        <v>9172932.6400000006</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15336,23 +15357,23 @@
       </c>
       <c r="R46" s="10">
         <f>R48-R47</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S46" s="10">
         <f>S48-S47</f>
-        <v>336492</v>
+        <v>122295</v>
       </c>
       <c r="T46" s="10">
         <f>S46/R46</f>
-        <v>30590.18181818182</v>
+        <v>30573.75</v>
       </c>
       <c r="V46" s="10">
         <f>S46*50</f>
-        <v>16824600</v>
+        <v>6114750</v>
       </c>
       <c r="W46" s="10">
         <f>V44-V46</f>
-        <v>-16824600</v>
+        <v>-6114750</v>
       </c>
     </row>
     <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15405,15 +15426,15 @@
       </c>
       <c r="R47" s="10">
         <f>SUM(C44:C158)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="S47" s="10">
         <f>SUM(P44:P136)</f>
-        <v>827234</v>
+        <v>1041431</v>
       </c>
       <c r="T47" s="10">
         <f>S47/R47</f>
-        <v>30638.296296296296</v>
+        <v>30630.323529411766</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15482,7 +15503,7 @@
       </c>
       <c r="W48" s="10">
         <f>V46-V48</f>
-        <v>16822050.960000001</v>
+        <v>6112200.96</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15736,23 +15757,23 @@
       </c>
       <c r="R53" s="15">
         <f>R55-R54</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S53" s="15">
         <f>S55-S54</f>
-        <v>367075</v>
+        <v>152878</v>
       </c>
       <c r="T53" s="15">
         <f>S53/R53</f>
-        <v>30589.583333333332</v>
+        <v>30575.599999999999</v>
       </c>
       <c r="V53" s="15">
         <f>S53*50</f>
-        <v>18353750</v>
+        <v>7643900</v>
       </c>
       <c r="W53" s="15">
         <f>V51-V53</f>
-        <v>-18353750</v>
+        <v>-7643900</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15805,15 +15826,15 @@
       </c>
       <c r="R54" s="37">
         <f>SUM(C51:C165)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="S54" s="37">
         <f>SUM(P49:P143)</f>
-        <v>827234</v>
+        <v>1041431</v>
       </c>
       <c r="T54" s="37">
         <f>S54/R54</f>
-        <v>30638.296296296296</v>
+        <v>30630.323529411766</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15879,7 +15900,7 @@
       </c>
       <c r="W55" s="10">
         <f>V53-V55</f>
-        <v>18351133.879999999</v>
+        <v>7641283.8799999999</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -17159,20 +17180,20 @@
       </c>
       <c r="R80" s="38">
         <f>R82-R81</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S80" s="38">
         <f>S82-S81</f>
-        <v>214239</v>
-      </c>
-      <c r="T80" s="38">
+        <v>42</v>
+      </c>
+      <c r="T80" s="38" t="e">
         <f>S80/R80</f>
-        <v>30605.571428571428</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U80" s="38"/>
       <c r="V80" s="19">
         <f>S80*50</f>
-        <v>10711950</v>
+        <v>2100</v>
       </c>
       <c r="W80" s="19"/>
     </row>
@@ -17226,15 +17247,15 @@
       </c>
       <c r="R81" s="38">
         <f>SUM(C76:C144)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S81" s="38">
         <f>SUM(P76:P145)</f>
-        <v>367362</v>
+        <v>581559</v>
       </c>
       <c r="T81" s="38">
         <f>S81/R81</f>
-        <v>30613.5</v>
+        <v>30608.36842105263</v>
       </c>
       <c r="U81" s="38"/>
       <c r="V81" s="19"/>
@@ -17307,7 +17328,7 @@
       </c>
       <c r="W82" s="19">
         <f>V80-V82</f>
-        <v>10710599.48</v>
+        <v>749.48</v>
       </c>
     </row>
     <row r="83" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -17602,20 +17623,20 @@
       </c>
       <c r="R88" s="38">
         <f>R90-R89</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S88" s="38">
         <f>S90-S89</f>
-        <v>397450</v>
+        <v>183253</v>
       </c>
       <c r="T88" s="38">
         <f>S88/R88</f>
-        <v>30573.076923076922</v>
+        <v>30542.166666666668</v>
       </c>
       <c r="U88" s="38"/>
       <c r="V88" s="19">
         <f>S88*50</f>
-        <v>19872500</v>
+        <v>9162650</v>
       </c>
     </row>
     <row r="89" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
@@ -17668,15 +17689,15 @@
       </c>
       <c r="R89" s="38">
         <f>SUM(C84:C152)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S89" s="38">
         <f>SUM(P84:P153)</f>
-        <v>367362</v>
+        <v>581559</v>
       </c>
       <c r="T89" s="38">
         <f>S89/R89</f>
-        <v>30613.5</v>
+        <v>30608.36842105263</v>
       </c>
       <c r="U89" s="38"/>
     </row>
@@ -17744,11 +17765,11 @@
       </c>
       <c r="W90" s="19">
         <f>V88-V90</f>
-        <v>19870723</v>
+        <v>9160873</v>
       </c>
       <c r="X90" s="19">
         <f>W90/R90</f>
-        <v>794828.92</v>
+        <v>366434.92</v>
       </c>
     </row>
     <row r="91" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
@@ -18236,10 +18257,45 @@
       </c>
     </row>
     <row r="101" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J101" s="8"/>
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>30602</v>
+      </c>
+      <c r="F101">
+        <v>896086847</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="8">
+        <v>43245.799884259257</v>
+      </c>
+      <c r="K101">
+        <v>30602</v>
+      </c>
+      <c r="L101">
+        <v>4625</v>
+      </c>
+      <c r="M101" t="s">
+        <v>316</v>
+      </c>
+      <c r="N101">
+        <v>14591031</v>
+      </c>
       <c r="P101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30602</v>
       </c>
       <c r="Q101">
         <f t="shared" si="7"/>
@@ -18247,10 +18303,45 @@
       </c>
     </row>
     <row r="102" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J102" s="8"/>
+      <c r="A102" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>30601</v>
+      </c>
+      <c r="F102">
+        <v>896086858</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="8">
+        <v>43245.799884259257</v>
+      </c>
+      <c r="K102">
+        <v>30601</v>
+      </c>
+      <c r="L102">
+        <v>4622</v>
+      </c>
+      <c r="M102" t="s">
+        <v>317</v>
+      </c>
+      <c r="N102">
+        <v>14591032</v>
+      </c>
       <c r="P102">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30601</v>
       </c>
       <c r="Q102">
         <f t="shared" si="7"/>
@@ -18258,10 +18349,45 @@
       </c>
     </row>
     <row r="103" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J103" s="8"/>
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>30601</v>
+      </c>
+      <c r="F103">
+        <v>896086859</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="8">
+        <v>43245.799884259257</v>
+      </c>
+      <c r="K103">
+        <v>30601</v>
+      </c>
+      <c r="L103">
+        <v>4623</v>
+      </c>
+      <c r="M103" t="s">
+        <v>318</v>
+      </c>
+      <c r="N103">
+        <v>14591033</v>
+      </c>
       <c r="P103">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30601</v>
       </c>
       <c r="Q103">
         <f t="shared" si="7"/>
@@ -18269,10 +18395,45 @@
       </c>
     </row>
     <row r="104" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J104" s="8"/>
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>30601</v>
+      </c>
+      <c r="F104">
+        <v>896086917</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" s="8">
+        <v>43245.799988425926</v>
+      </c>
+      <c r="K104">
+        <v>30601</v>
+      </c>
+      <c r="L104">
+        <v>4628</v>
+      </c>
+      <c r="M104" t="s">
+        <v>319</v>
+      </c>
+      <c r="N104">
+        <v>14591034</v>
+      </c>
       <c r="P104">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30601</v>
       </c>
       <c r="Q104">
         <f t="shared" si="7"/>
@@ -18280,11 +18441,46 @@
       </c>
     </row>
     <row r="105" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J105" s="5"/>
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>30600</v>
+      </c>
+      <c r="F105" s="1">
+        <v>896086926</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5">
+        <v>43245.799988425926</v>
+      </c>
+      <c r="K105" s="1">
+        <v>30600</v>
+      </c>
+      <c r="L105" s="1">
+        <v>4624</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N105" s="1">
+        <v>14591035</v>
+      </c>
       <c r="O105" s="22"/>
       <c r="P105" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="Q105" s="19">
         <f t="shared" si="7"/>
@@ -18292,11 +18488,49 @@
       </c>
     </row>
     <row r="106" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J106" s="5"/>
+      <c r="A106" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>30596</v>
+      </c>
+      <c r="F106" s="1">
+        <v>896087025</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106" s="5">
+        <v>43245.800081018519</v>
+      </c>
+      <c r="K106" s="1">
+        <v>30596</v>
+      </c>
+      <c r="L106" s="1">
+        <v>4633</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N106" s="1">
+        <v>14591036</v>
+      </c>
       <c r="O106" s="22"/>
       <c r="P106" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30596</v>
       </c>
       <c r="Q106" s="19">
         <f t="shared" si="7"/>
@@ -18304,11 +18538,49 @@
       </c>
     </row>
     <row r="107" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="J107" s="5"/>
+      <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>30596</v>
+      </c>
+      <c r="F107" s="1">
+        <v>896087372</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107" s="5">
+        <v>43245.801539351851</v>
+      </c>
+      <c r="K107" s="1">
+        <v>30596</v>
+      </c>
+      <c r="L107" s="1">
+        <v>4634</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N107" s="1">
+        <v>14591041</v>
+      </c>
       <c r="O107" s="22"/>
       <c r="P107" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30596</v>
       </c>
       <c r="Q107" s="19">
         <f t="shared" si="7"/>
@@ -18340,19 +18612,19 @@
       </c>
       <c r="R109" s="1">
         <f>R111-R110</f>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="S109" s="1">
         <f>S111-S110</f>
-        <v>20</v>
+        <v>-214177</v>
       </c>
       <c r="T109" s="1">
         <f>S109/R109</f>
-        <v>-20</v>
+        <v>26772.125</v>
       </c>
       <c r="V109" s="1">
         <f>S109*50</f>
-        <v>1000</v>
+        <v>-10708850</v>
       </c>
     </row>
     <row r="110" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18368,15 +18640,15 @@
       </c>
       <c r="R110" s="1">
         <f>SUM(C98:C146)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S110" s="1">
         <f>SUM(P99:P147)</f>
-        <v>61249</v>
+        <v>275446</v>
       </c>
       <c r="T110" s="1">
         <f>S110/R110</f>
-        <v>30624.5</v>
+        <v>30605.111111111109</v>
       </c>
     </row>
     <row r="111" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18408,11 +18680,11 @@
       </c>
       <c r="W111" s="1">
         <f>V109-V111</f>
-        <v>932.92</v>
+        <v>-10708917.08</v>
       </c>
       <c r="X111" s="1">
         <f>W111/R111</f>
-        <v>932.92</v>
+        <v>-10708917.08</v>
       </c>
     </row>
     <row r="112" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18428,7 +18700,7 @@
       </c>
       <c r="V112" s="1">
         <f>SUM(V101:V110)</f>
-        <v>1000</v>
+        <v>-10708850</v>
       </c>
     </row>
     <row r="113" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18480,15 +18752,15 @@
       </c>
       <c r="R116" s="1">
         <f>R118-R117</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="S116" s="1">
         <f>S118-S117</f>
         <v>0</v>
       </c>
-      <c r="T116" s="1" t="e">
+      <c r="T116" s="1">
         <f>S116/R116</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V116" s="1">
         <f>S116*50</f>
@@ -18508,15 +18780,15 @@
       </c>
       <c r="R117" s="1">
         <f>SUM(C105:C136)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S117" s="1">
         <f>SUM(P112:P136)</f>
         <v>0</v>
       </c>
-      <c r="T117" s="1" t="e">
+      <c r="T117" s="1">
         <f>S117/R117</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/计算表1.xlsx
+++ b/计算表1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="266">
   <si>
     <t>01-0202975-00</t>
   </si>
@@ -675,328 +675,157 @@
     <t>60BD1EC2:00A7A6CC</t>
   </si>
   <si>
-    <t>HSIK8</t>
-  </si>
-  <si>
-    <t>ºãÖ¸ 2018-05</t>
-  </si>
-  <si>
-    <t>61188702:0009A023</t>
-  </si>
-  <si>
-    <t>61188702:000A9A47</t>
-  </si>
-  <si>
-    <t>61188702:000AA00F</t>
-  </si>
-  <si>
-    <t>61188702:000AA85F</t>
-  </si>
-  <si>
-    <t>61188702:000B3CA5</t>
-  </si>
-  <si>
-    <t>61188702:000B9445</t>
-  </si>
-  <si>
-    <t>61188702:000FDD21</t>
-  </si>
-  <si>
-    <t>61188702:0010261A</t>
-  </si>
-  <si>
-    <t>61188702:00111343</t>
-  </si>
-  <si>
-    <t>61188702:0011303F</t>
-  </si>
-  <si>
-    <t>61188702:00117B51</t>
-  </si>
-  <si>
-    <t>61188702:0012BD38</t>
-  </si>
-  <si>
-    <t>61188702:00135BFA</t>
-  </si>
-  <si>
-    <t>61188702:00139E5F</t>
-  </si>
-  <si>
-    <t>61188702:0014FD87</t>
-  </si>
-  <si>
-    <t>61188702:0015BA53</t>
-  </si>
-  <si>
-    <t>61188702:001BF4CF</t>
-  </si>
-  <si>
-    <t>61188702:001DCABF</t>
-  </si>
-  <si>
-    <t>61188702:001F8DAB</t>
-  </si>
-  <si>
-    <t>61188702:00241083</t>
-  </si>
-  <si>
-    <t>61188702:002448FE</t>
-  </si>
-  <si>
-    <t>61188702:002480D1</t>
-  </si>
-  <si>
-    <t>61188702:002503BD</t>
-  </si>
-  <si>
-    <t>61188702:00253358</t>
-  </si>
-  <si>
-    <t>61188702:0028FE7D</t>
-  </si>
-  <si>
-    <t>61188702:002B189B</t>
-  </si>
-  <si>
-    <t>61188702:002B4952</t>
-  </si>
-  <si>
-    <t>61188702:002B8095</t>
-  </si>
-  <si>
-    <t>61188702:002C1E62</t>
-  </si>
-  <si>
-    <t>61188702:00349827</t>
-  </si>
-  <si>
-    <t>61188702:0035C348</t>
-  </si>
-  <si>
-    <t>61188702:0036CFBA</t>
-  </si>
-  <si>
-    <t>61188702:0039F6AB</t>
-  </si>
-  <si>
-    <t>61188702:003CB8E5</t>
-  </si>
-  <si>
-    <t>61188702:003DB256</t>
-  </si>
-  <si>
-    <t>61188702:003EFF84</t>
-  </si>
-  <si>
-    <t>61188702:003CBCD9</t>
-  </si>
-  <si>
-    <t>61188702:004277B6</t>
-  </si>
-  <si>
-    <t>61188702:004F29BC</t>
-  </si>
-  <si>
-    <t>61188702:004F2B68</t>
-  </si>
-  <si>
-    <t>61188702:00500575</t>
-  </si>
-  <si>
-    <t>61188702:004FF80F</t>
-  </si>
-  <si>
-    <t>61188702:0051AC1E</t>
-  </si>
-  <si>
-    <t>61188702:0052A531</t>
-  </si>
-  <si>
-    <t>61188702:0052A727</t>
-  </si>
-  <si>
-    <t>61188702:0052EEF5</t>
-  </si>
-  <si>
-    <t>61188702:00536EB0</t>
-  </si>
-  <si>
-    <t>61188702:00539449</t>
-  </si>
-  <si>
-    <t>61188702:0053F788</t>
-  </si>
-  <si>
-    <t>61188702:0057BC08</t>
-  </si>
-  <si>
-    <t>61188702:00589865</t>
-  </si>
-  <si>
-    <t>61188702:0058B1F3</t>
-  </si>
-  <si>
-    <t>61188702:00599941</t>
-  </si>
-  <si>
-    <t>61188702:0058DE8D</t>
-  </si>
-  <si>
-    <t>61188702:0053093C</t>
-  </si>
-  <si>
-    <t>61188702:0050C5C4</t>
-  </si>
-  <si>
-    <t>61188702:005AD3D0</t>
-  </si>
-  <si>
-    <t>61188702:005B2C34</t>
-  </si>
-  <si>
-    <t>61188702:005FEFFC</t>
-  </si>
-  <si>
-    <t>61188702:00601A2F</t>
-  </si>
-  <si>
-    <t>61188702:00615643</t>
-  </si>
-  <si>
-    <t>61188702:00619940</t>
-  </si>
-  <si>
-    <t>61188702:0081637B</t>
-  </si>
-  <si>
-    <t>61188702:0081FCF0</t>
-  </si>
-  <si>
-    <t>61188702:008764C5</t>
-  </si>
-  <si>
-    <t>61188702:00877971</t>
-  </si>
-  <si>
-    <t>61188702:0088303B</t>
-  </si>
-  <si>
-    <t>61188702:0088BB56</t>
-  </si>
-  <si>
-    <t>61188702:0088E6A3</t>
-  </si>
-  <si>
-    <t>61188702:00894581</t>
-  </si>
-  <si>
-    <t>61188702:0089B3B4</t>
-  </si>
-  <si>
-    <t>61188702:0089EF58</t>
-  </si>
-  <si>
-    <t>61188702:008A68E0</t>
-  </si>
-  <si>
-    <t>61188702:008AE52E</t>
-  </si>
-  <si>
-    <t>61188702:008E30EC</t>
-  </si>
-  <si>
-    <t>61188702:008E7893</t>
-  </si>
-  <si>
-    <t>61188702:0090FF39</t>
-  </si>
-  <si>
-    <t>61188702:00911C27</t>
-  </si>
-  <si>
-    <t>61188702:009109FD</t>
-  </si>
-  <si>
-    <t>61188702:0091EA12</t>
-  </si>
-  <si>
-    <t>61188702:0092CC5C</t>
-  </si>
-  <si>
-    <t>61188702:0092D920</t>
-  </si>
-  <si>
-    <t>61188702:0094E99F</t>
-  </si>
-  <si>
-    <t>61188702:009311AC</t>
-  </si>
-  <si>
-    <t>61188702:00953557</t>
-  </si>
-  <si>
-    <t>61188702:009580C1</t>
-  </si>
-  <si>
-    <t>61188702:00994C81</t>
-  </si>
-  <si>
-    <t>61188702:00996C70</t>
-  </si>
-  <si>
-    <t>61188702:009851D6</t>
-  </si>
-  <si>
-    <t>61188702:00A17705</t>
-  </si>
-  <si>
-    <t>61188702:00A32118</t>
-  </si>
-  <si>
-    <t>61188702:00A715AD</t>
-  </si>
-  <si>
-    <t>61188702:00A8230D</t>
-  </si>
-  <si>
-    <t>61188702:00A98A27</t>
-  </si>
-  <si>
-    <t>61188702:00A98DA1</t>
-  </si>
-  <si>
-    <t>61188702:00AC356A</t>
-  </si>
-  <si>
-    <t>61188702:00AC7CDA</t>
-  </si>
-  <si>
-    <t>61188702:00AC7E45</t>
-  </si>
-  <si>
-    <t>61188702:00AC88BC</t>
-  </si>
-  <si>
-    <t>61188702:00A9870E</t>
-  </si>
-  <si>
-    <t>61188702:00A9559E</t>
-  </si>
-  <si>
-    <t>61188702:00A9565A</t>
-  </si>
-  <si>
-    <t>61188702:00AA3FE8</t>
-  </si>
-  <si>
-    <t>61188702:00A986F3</t>
-  </si>
-  <si>
-    <t>61188702:00AE8543</t>
-  </si>
-  <si>
-    <t>61188702:00AE97C8</t>
+    <t>HSIN8</t>
+  </si>
+  <si>
+    <t>ºãÖ¸ 2018-07</t>
+  </si>
+  <si>
+    <t>6146FB02:004C8F58</t>
+  </si>
+  <si>
+    <t>HSIM8</t>
+  </si>
+  <si>
+    <t>ºãÖ¸ 2018-06</t>
+  </si>
+  <si>
+    <t>6146FB02:004F9EB0</t>
+  </si>
+  <si>
+    <t>6146FB02:0050DA5C</t>
+  </si>
+  <si>
+    <t>6146FB02:00512072</t>
+  </si>
+  <si>
+    <t>6146FB02:00514B3B</t>
+  </si>
+  <si>
+    <t>6146FB02:0053C5CA</t>
+  </si>
+  <si>
+    <t>6146FB02:0055CC7D</t>
+  </si>
+  <si>
+    <t>6146FB02:005936F9</t>
+  </si>
+  <si>
+    <t>6146FB02:005A57D6</t>
+  </si>
+  <si>
+    <t>6146FB02:005AB972</t>
+  </si>
+  <si>
+    <t>6146FB02:005B93A6</t>
+  </si>
+  <si>
+    <t>6146FB02:00762067</t>
+  </si>
+  <si>
+    <t>6146FB02:0076302D</t>
+  </si>
+  <si>
+    <t>6146FB02:00767103</t>
+  </si>
+  <si>
+    <t>6146FB02:007C1AB9</t>
+  </si>
+  <si>
+    <t>6146FB02:007C8393</t>
+  </si>
+  <si>
+    <t>6146FB02:00868D53</t>
+  </si>
+  <si>
+    <t>6146FB02:008A7239</t>
+  </si>
+  <si>
+    <t>6146FB02:008A8B4A</t>
+  </si>
+  <si>
+    <t>6146FB02:0093BF99</t>
+  </si>
+  <si>
+    <t>6146FB02:00939C31</t>
+  </si>
+  <si>
+    <t>6146FB02:009AAB9D</t>
+  </si>
+  <si>
+    <t>6146FB02:009E75B0</t>
+  </si>
+  <si>
+    <t>6146FB02:009E6740</t>
+  </si>
+  <si>
+    <t>6146FB02:00A4AFCE</t>
+  </si>
+  <si>
+    <t>6146FB02:00B900F6</t>
+  </si>
+  <si>
+    <t>6146FB02:00B90A1E</t>
+  </si>
+  <si>
+    <t>6146FB02:00B9CE64</t>
+  </si>
+  <si>
+    <t>6146FB02:00CBF83D</t>
+  </si>
+  <si>
+    <t>6146FB02:00CC1684</t>
+  </si>
+  <si>
+    <t>6146FB02:00CC1B07</t>
+  </si>
+  <si>
+    <t>6146FB02:00CCD52A</t>
+  </si>
+  <si>
+    <t>6146FB02:00CF0C27</t>
+  </si>
+  <si>
+    <t>6146FB02:00CF0190</t>
+  </si>
+  <si>
+    <t>6146FB02:00D1BDCF</t>
+  </si>
+  <si>
+    <t>6146FB02:00D1AE19</t>
+  </si>
+  <si>
+    <t>6146FB02:00D61813</t>
+  </si>
+  <si>
+    <t>6146FB02:00D82D77</t>
+  </si>
+  <si>
+    <t>6146FB02:00D867C7</t>
+  </si>
+  <si>
+    <t>6146FB02:00D8960A</t>
+  </si>
+  <si>
+    <t>6146FB02:00DB7EBE</t>
+  </si>
+  <si>
+    <t>6146FB02:00DB9E9C</t>
+  </si>
+  <si>
+    <t>6146FB02:00DBE28D</t>
+  </si>
+  <si>
+    <t>6146FB02:00DBE056</t>
+  </si>
+  <si>
+    <t>6146FB02:00DBED64</t>
+  </si>
+  <si>
+    <t>6146FB02:00DC3CE2</t>
+  </si>
+  <si>
+    <t>6146FB02:00DC4943</t>
   </si>
 </sst>
 </file>
@@ -12805,8 +12634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12894,15 +12723,15 @@
       <c r="B2" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19"/>
       <c r="E2" s="19">
-        <v>30664</v>
+        <v>28546</v>
       </c>
       <c r="F2" s="19">
-        <v>895724345</v>
+        <v>912891779</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>16</v>
@@ -12910,48 +12739,50 @@
       <c r="H2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" s="32">
-        <v>43245.39539351852</v>
+        <v>43278.463148148148</v>
       </c>
       <c r="K2" s="19">
-        <v>30664</v>
+        <v>28546</v>
       </c>
       <c r="L2" s="19">
-        <v>4499</v>
+        <v>5478</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>217</v>
       </c>
       <c r="N2" s="19">
-        <v>14588986</v>
+        <v>14680874</v>
       </c>
       <c r="O2" s="19"/>
       <c r="P2" s="19">
         <f t="shared" ref="P2:P33" si="0">C2*E2</f>
-        <v>0</v>
+        <v>28546</v>
       </c>
       <c r="Q2" s="19">
         <f t="shared" ref="Q2:Q33" si="1">D2*E2</f>
-        <v>30664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19">
         <v>1</v>
       </c>
       <c r="E3" s="19">
-        <v>30655</v>
+        <v>28784</v>
       </c>
       <c r="F3" s="19">
-        <v>895727738</v>
+        <v>912901097</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>16</v>
@@ -12963,19 +12794,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="32">
-        <v>43245.39638888889</v>
+        <v>43278.466203703705</v>
       </c>
       <c r="K3" s="19">
-        <v>30655</v>
+        <v>28784</v>
       </c>
       <c r="L3" s="19">
-        <v>4500</v>
+        <v>5480</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N3" s="19">
-        <v>14589001</v>
+        <v>14680931</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19">
@@ -12984,24 +12815,24 @@
       </c>
       <c r="Q3" s="19">
         <f t="shared" si="1"/>
-        <v>30655</v>
+        <v>28784</v>
       </c>
       <c r="R3" s="34">
         <f>R5-R4</f>
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="S3" s="34">
         <f>S5-S4</f>
-        <v>183946</v>
+        <v>-112042</v>
       </c>
       <c r="T3" s="34">
         <f>S3/R3</f>
-        <v>30657.666666666668</v>
+        <v>28010.5</v>
       </c>
       <c r="U3" s="34"/>
       <c r="V3" s="34">
         <f>S3*50</f>
-        <v>9197300</v>
+        <v>-5602100</v>
       </c>
       <c r="W3" s="34"/>
       <c r="X3" s="34"/>
@@ -13017,15 +12848,15 @@
       <c r="B4" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="19">
-        <v>30653</v>
+        <v>28565</v>
       </c>
       <c r="F4" s="19">
-        <v>895727874</v>
+        <v>912904837</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>16</v>
@@ -13033,47 +12864,49 @@
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="J4" s="32">
-        <v>43245.396435185183</v>
+        <v>43278.467905092592</v>
       </c>
       <c r="K4" s="19">
-        <v>30653</v>
+        <v>28565</v>
       </c>
       <c r="L4" s="19">
-        <v>4501</v>
+        <v>5481</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N4" s="19">
-        <v>14589002</v>
+        <v>14680946</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28565</v>
       </c>
       <c r="Q4" s="19">
         <f t="shared" si="1"/>
-        <v>30653</v>
+        <v>0</v>
       </c>
       <c r="R4" s="34">
         <f>SUM(C6:C140)</f>
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="S4" s="34">
         <f>SUM(P6:P140)</f>
-        <v>1592886</v>
+        <v>679950</v>
       </c>
       <c r="T4" s="34">
         <f>S4/R4</f>
-        <v>30632.423076923078</v>
+        <v>28331.25</v>
       </c>
       <c r="U4" s="34"/>
       <c r="V4" s="34">
         <f>R4*67.08</f>
-        <v>3488.16</v>
+        <v>1609.92</v>
       </c>
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
@@ -13085,15 +12918,15 @@
       <c r="B5" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="19">
-        <v>30653</v>
+        <v>28571</v>
       </c>
       <c r="F5" s="19">
-        <v>895727878</v>
+        <v>912905620</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>16</v>
@@ -13101,55 +12934,57 @@
       <c r="H5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="J5" s="32">
-        <v>43245.396435185183</v>
+        <v>43278.468182870369</v>
       </c>
       <c r="K5" s="19">
-        <v>30647</v>
+        <v>28573</v>
       </c>
       <c r="L5" s="19">
-        <v>4502</v>
+        <v>5482</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N5" s="19">
-        <v>14589003</v>
+        <v>14680986</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28571</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" si="1"/>
-        <v>30653</v>
+        <v>0</v>
       </c>
       <c r="R5" s="34">
         <f>SUM(D2:D141)</f>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="S5" s="34">
         <f>SUM(Q2:Q140)</f>
-        <v>1776832</v>
+        <v>567908</v>
       </c>
       <c r="T5" s="34">
         <f>S5/R5</f>
-        <v>30635.03448275862</v>
+        <v>28395.4</v>
       </c>
       <c r="U5" s="34"/>
       <c r="V5" s="34">
         <f>R5*67.08</f>
-        <v>3890.64</v>
+        <v>1341.6</v>
       </c>
       <c r="W5" s="34">
         <f>V3-V5</f>
-        <v>9193409.3599999994</v>
+        <v>-5603441.5999999996</v>
       </c>
       <c r="X5" s="34">
         <f>W5/R5</f>
-        <v>158507.05793103448</v>
+        <v>-280172.07999999996</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -13164,10 +12999,10 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19">
-        <v>30621</v>
+        <v>28558</v>
       </c>
       <c r="F6" s="19">
-        <v>895730354</v>
+        <v>912906360</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>16</v>
@@ -13179,24 +13014,24 @@
         <v>1</v>
       </c>
       <c r="J6" s="32">
-        <v>43245.396782407406</v>
+        <v>43278.468356481484</v>
       </c>
       <c r="K6" s="19">
-        <v>30621</v>
+        <v>28558</v>
       </c>
       <c r="L6" s="19">
-        <v>4503</v>
+        <v>5483</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N6" s="19">
-        <v>14589009</v>
+        <v>14681030</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="19">
         <f t="shared" si="0"/>
-        <v>30621</v>
+        <v>28558</v>
       </c>
       <c r="Q6" s="19">
         <f t="shared" si="1"/>
@@ -13215,10 +13050,10 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
-        <v>30603</v>
+        <v>28543</v>
       </c>
       <c r="F7" s="19">
-        <v>895731716</v>
+        <v>912912663</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>16</v>
@@ -13230,24 +13065,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="32">
-        <v>43245.39702546296</v>
+        <v>43278.471342592595</v>
       </c>
       <c r="K7" s="19">
-        <v>30603</v>
+        <v>28545</v>
       </c>
       <c r="L7" s="19">
-        <v>4504</v>
+        <v>5484</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N7" s="19">
-        <v>14589015</v>
+        <v>14681061</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="19">
         <f t="shared" si="0"/>
-        <v>30603</v>
+        <v>28543</v>
       </c>
       <c r="Q7" s="19">
         <f t="shared" si="1"/>
@@ -13261,15 +13096,15 @@
       <c r="B8" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="19">
-        <v>30721</v>
+        <v>28550</v>
       </c>
       <c r="F8" s="19">
-        <v>895747378</v>
+        <v>912916886</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>16</v>
@@ -13281,28 +13116,28 @@
         <v>1</v>
       </c>
       <c r="J8" s="32">
-        <v>43245.399710648147</v>
+        <v>43278.47388888889</v>
       </c>
       <c r="K8" s="19">
-        <v>30721</v>
+        <v>28551</v>
       </c>
       <c r="L8" s="19">
-        <v>4505</v>
+        <v>5485</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N8" s="19">
-        <v>14589076</v>
+        <v>14681097</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28550</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="1"/>
-        <v>30721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -13316,10 +13151,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>30703</v>
+        <v>28527</v>
       </c>
       <c r="F9" s="10">
-        <v>895748355</v>
+        <v>912926280</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>16</v>
@@ -13331,23 +13166,23 @@
         <v>1</v>
       </c>
       <c r="J9" s="14">
-        <v>43245.399930555555</v>
+        <v>43278.477986111109</v>
       </c>
       <c r="K9" s="10">
-        <v>30703</v>
+        <v>28528</v>
       </c>
       <c r="L9" s="10">
-        <v>4506</v>
+        <v>5486</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N9" s="10">
-        <v>14589080</v>
+        <v>14681147</v>
       </c>
       <c r="P9" s="10">
         <f t="shared" si="0"/>
-        <v>30703</v>
+        <v>28527</v>
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="1"/>
@@ -13356,20 +13191,20 @@
     </row>
     <row r="10" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19">
         <v>1</v>
       </c>
       <c r="E10" s="19">
-        <v>30717</v>
+        <v>28766</v>
       </c>
       <c r="F10" s="19">
-        <v>895751333</v>
+        <v>912929091</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>16</v>
@@ -13381,19 +13216,19 @@
         <v>1</v>
       </c>
       <c r="J10" s="32">
-        <v>43245.400729166664</v>
+        <v>43278.479178240741</v>
       </c>
       <c r="K10" s="19">
-        <v>30717</v>
+        <v>28766</v>
       </c>
       <c r="L10" s="19">
-        <v>4507</v>
+        <v>5487</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N10" s="19">
-        <v>14589087</v>
+        <v>14681184</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19">
@@ -13402,25 +13237,25 @@
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="1"/>
-        <v>30717</v>
+        <v>28766</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19">
         <v>1</v>
       </c>
       <c r="E11" s="19">
-        <v>30715</v>
+        <v>28768</v>
       </c>
       <c r="F11" s="19">
-        <v>895751345</v>
+        <v>912930291</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>16</v>
@@ -13432,19 +13267,19 @@
         <v>1</v>
       </c>
       <c r="J11" s="32">
-        <v>43245.400729166664</v>
+        <v>43278.479768518519</v>
       </c>
       <c r="K11" s="19">
-        <v>30713</v>
+        <v>28768</v>
       </c>
       <c r="L11" s="19">
-        <v>4508</v>
+        <v>5488</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N11" s="19">
-        <v>14589088</v>
+        <v>14681189</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19">
@@ -13453,25 +13288,25 @@
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="1"/>
-        <v>30715</v>
+        <v>28768</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="19">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19"/>
+        <v>219</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
       <c r="E12" s="19">
-        <v>30701</v>
+        <v>28768</v>
       </c>
       <c r="F12" s="19">
-        <v>895752287</v>
+        <v>912931773</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>16</v>
@@ -13483,28 +13318,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="32">
-        <v>43245.401018518518</v>
+        <v>43278.481041666666</v>
       </c>
       <c r="K12" s="19">
-        <v>30701</v>
+        <v>28768</v>
       </c>
       <c r="L12" s="19">
-        <v>4509</v>
+        <v>5490</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N12" s="19">
-        <v>14589091</v>
+        <v>14681195</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19">
         <f t="shared" si="0"/>
-        <v>30701</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28768</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -13514,15 +13349,15 @@
       <c r="B13" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="19">
-        <v>30718</v>
+        <v>28428</v>
       </c>
       <c r="F13" s="19">
-        <v>895755468</v>
+        <v>912998923</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>16</v>
@@ -13534,28 +13369,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="32">
-        <v>43245.401909722219</v>
+        <v>43278.560729166667</v>
       </c>
       <c r="K13" s="19">
-        <v>30717</v>
+        <v>28429</v>
       </c>
       <c r="L13" s="19">
-        <v>4511</v>
+        <v>5491</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N13" s="19">
-        <v>14589102</v>
+        <v>14681625</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28428</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="1"/>
-        <v>30718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -13570,10 +13405,10 @@
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19">
-        <v>30661</v>
+        <v>28428</v>
       </c>
       <c r="F14" s="19">
-        <v>895757718</v>
+        <v>912999170</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>16</v>
@@ -13585,24 +13420,24 @@
         <v>1</v>
       </c>
       <c r="J14" s="32">
-        <v>43245.402291666665</v>
+        <v>43278.560844907406</v>
       </c>
       <c r="K14" s="19">
-        <v>30661</v>
+        <v>28428</v>
       </c>
       <c r="L14" s="19">
-        <v>4512</v>
+        <v>5493</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N14" s="19">
-        <v>14589118</v>
+        <v>14681627</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19">
         <f t="shared" si="0"/>
-        <v>30661</v>
+        <v>28428</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="1"/>
@@ -13614,15 +13449,15 @@
       </c>
       <c r="S14" s="10">
         <f>S16-S15</f>
-        <v>577</v>
+        <v>58651</v>
       </c>
       <c r="T14" s="10">
         <f>S14/R14</f>
-        <v>288.5</v>
+        <v>29325.5</v>
       </c>
       <c r="V14" s="10">
         <f>S14*50</f>
-        <v>28850</v>
+        <v>2932550</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -13637,10 +13472,10 @@
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19">
-        <v>30661</v>
+        <v>28443</v>
       </c>
       <c r="F15" s="19">
-        <v>895759145</v>
+        <v>912999922</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>16</v>
@@ -13652,24 +13487,24 @@
         <v>1</v>
       </c>
       <c r="J15" s="32">
-        <v>43245.402777777781</v>
+        <v>43278.561064814814</v>
       </c>
       <c r="K15" s="19">
-        <v>30661</v>
+        <v>28443</v>
       </c>
       <c r="L15" s="19">
-        <v>4513</v>
+        <v>5494</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N15" s="19">
-        <v>14589124</v>
+        <v>14681632</v>
       </c>
       <c r="O15" s="19"/>
       <c r="P15" s="19">
         <f t="shared" si="0"/>
-        <v>30661</v>
+        <v>28443</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="1"/>
@@ -13677,35 +13512,35 @@
       </c>
       <c r="R15" s="35">
         <f>SUM(C18:C67)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="S15" s="35">
         <f>SUM(P18:P69)</f>
-        <v>766125</v>
+        <v>480473</v>
       </c>
       <c r="T15" s="35">
         <f>S15/R15</f>
-        <v>30645</v>
+        <v>28263.117647058825</v>
       </c>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1</v>
-      </c>
-      <c r="D16" s="19"/>
+        <v>219</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
       <c r="E16" s="19">
-        <v>30631</v>
+        <v>28718</v>
       </c>
       <c r="F16" s="19">
-        <v>895762272</v>
+        <v>913015608</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>16</v>
@@ -13717,70 +13552,70 @@
         <v>1</v>
       </c>
       <c r="J16" s="32">
-        <v>43245.403622685182</v>
+        <v>43278.567418981482</v>
       </c>
       <c r="K16" s="19">
-        <v>30631</v>
+        <v>28718</v>
       </c>
       <c r="L16" s="19">
-        <v>4514</v>
+        <v>5495</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N16" s="19">
-        <v>14589157</v>
+        <v>14681728</v>
       </c>
       <c r="O16" s="19"/>
       <c r="P16" s="19">
         <f t="shared" si="0"/>
-        <v>30631</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28718</v>
       </c>
       <c r="R16" s="35">
         <f>SUM(D9:D52)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="S16" s="35">
         <f>SUM(Q9:Q49)</f>
-        <v>766702</v>
+        <v>539124</v>
       </c>
       <c r="T16" s="35">
         <f>S16/R16</f>
-        <v>28396.370370370369</v>
+        <v>28374.947368421053</v>
       </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35">
         <f>R16*67.08</f>
-        <v>1811.1599999999999</v>
+        <v>1274.52</v>
       </c>
       <c r="W16" s="15">
         <f>V14-V16</f>
-        <v>27038.84</v>
+        <v>2931275.48</v>
       </c>
       <c r="X16" s="15">
         <f>W16/R16</f>
-        <v>1001.4385185185185</v>
+        <v>154277.65684210527</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="19">
+        <v>219</v>
+      </c>
+      <c r="D17" s="19">
         <v>1</v>
       </c>
       <c r="E17" s="19">
-        <v>30621</v>
+        <v>28728</v>
       </c>
       <c r="F17" s="19">
-        <v>895766543</v>
+        <v>913016793</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>16</v>
@@ -13792,27 +13627,27 @@
         <v>1</v>
       </c>
       <c r="J17" s="32">
-        <v>43245.404942129629</v>
+        <v>43278.567627314813</v>
       </c>
       <c r="K17" s="19">
-        <v>30621</v>
+        <v>28728</v>
       </c>
       <c r="L17" s="19">
-        <v>4515</v>
+        <v>5496</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N17" s="19">
-        <v>14589194</v>
+        <v>14681732</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="0"/>
-        <v>30621</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28728</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -13822,14 +13657,14 @@
       <c r="B18" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="10">
+      <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="E18" s="10">
-        <v>30610</v>
+        <v>28439</v>
       </c>
       <c r="F18" s="10">
-        <v>895777996</v>
+        <v>913041927</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>16</v>
@@ -13841,27 +13676,27 @@
         <v>1</v>
       </c>
       <c r="J18" s="14">
-        <v>43245.408935185187</v>
+        <v>43278.578981481478</v>
       </c>
       <c r="K18" s="10">
-        <v>30610</v>
+        <v>28439</v>
       </c>
       <c r="L18" s="10">
-        <v>4516</v>
+        <v>5498</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N18" s="10">
-        <v>14589225</v>
+        <v>14681964</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28439</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="1"/>
-        <v>30610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -13871,14 +13706,14 @@
       <c r="B19" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="10">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
       <c r="E19" s="10">
-        <v>30643</v>
+        <v>28366</v>
       </c>
       <c r="F19" s="10">
-        <v>895782354</v>
+        <v>913052173</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>16</v>
@@ -13890,27 +13725,27 @@
         <v>1</v>
       </c>
       <c r="J19" s="14">
-        <v>43245.410208333335</v>
+        <v>43278.58284722222</v>
       </c>
       <c r="K19" s="10">
-        <v>30642</v>
+        <v>28366</v>
       </c>
       <c r="L19" s="10">
-        <v>4517</v>
+        <v>5499</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N19" s="10">
-        <v>14589243</v>
+        <v>14682041</v>
       </c>
       <c r="P19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28366</v>
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="1"/>
-        <v>30643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13924,10 +13759,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="10">
-        <v>30608</v>
+        <v>28364</v>
       </c>
       <c r="F20" s="10">
-        <v>895788083</v>
+        <v>913052285</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>16</v>
@@ -13939,23 +13774,23 @@
         <v>1</v>
       </c>
       <c r="J20" s="14">
-        <v>43245.413912037038</v>
+        <v>43278.582905092589</v>
       </c>
       <c r="K20" s="10">
-        <v>30608</v>
+        <v>28368</v>
       </c>
       <c r="L20" s="10">
-        <v>4518</v>
+        <v>5500</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N20" s="10">
-        <v>14589261</v>
+        <v>14682043</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="0"/>
-        <v>30608</v>
+        <v>28364</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="1"/>
@@ -13964,19 +13799,19 @@
     </row>
     <row r="21" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
       </c>
       <c r="E21" s="10">
-        <v>30632</v>
+        <v>28602</v>
       </c>
       <c r="F21" s="10">
-        <v>895793117</v>
+        <v>913073988</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>16</v>
@@ -13988,19 +13823,19 @@
         <v>1</v>
       </c>
       <c r="J21" s="14">
-        <v>43245.416828703703</v>
+        <v>43278.592326388891</v>
       </c>
       <c r="K21" s="10">
-        <v>30632</v>
+        <v>28602</v>
       </c>
       <c r="L21" s="10">
-        <v>4519</v>
+        <v>5502</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N21" s="10">
-        <v>14589290</v>
+        <v>14682330</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="0"/>
@@ -14008,25 +13843,25 @@
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="1"/>
-        <v>30632</v>
+        <v>28602</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>219</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
       <c r="E22" s="10">
-        <v>30641</v>
+        <v>28608</v>
       </c>
       <c r="F22" s="10">
-        <v>895793431</v>
+        <v>913074013</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>16</v>
@@ -14034,30 +13869,32 @@
       <c r="H22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="J22" s="14">
-        <v>43245.417002314818</v>
+        <v>43278.59233796296</v>
       </c>
       <c r="K22" s="10">
-        <v>30703</v>
+        <v>28608</v>
       </c>
       <c r="L22" s="10">
-        <v>4520</v>
+        <v>5501</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N22" s="10">
-        <v>14589292</v>
+        <v>14682331</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10">
         <f t="shared" si="0"/>
-        <v>30641</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28608</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -14067,14 +13904,14 @@
       <c r="B23" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="15">
+      <c r="C23" s="15">
         <v>1</v>
       </c>
       <c r="E23" s="15">
-        <v>30626</v>
+        <v>28391</v>
       </c>
       <c r="F23" s="15">
-        <v>895793795</v>
+        <v>913091531</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>16</v>
@@ -14086,43 +13923,43 @@
         <v>1</v>
       </c>
       <c r="J23" s="27">
-        <v>43245.417280092595</v>
+        <v>43278.600624999999</v>
       </c>
       <c r="K23" s="15">
-        <v>30626</v>
+        <v>28391</v>
       </c>
       <c r="L23" s="15">
-        <v>4521</v>
+        <v>5503</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N23" s="15">
-        <v>14589295</v>
+        <v>14682481</v>
       </c>
       <c r="P23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28391</v>
       </c>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>30626</v>
+        <v>0</v>
       </c>
       <c r="R23" s="33">
         <f>R25-R24</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S23" s="33">
         <f>S25-S24</f>
-        <v>153417</v>
+        <v>29885</v>
       </c>
       <c r="T23" s="33">
         <f>S23/R23</f>
-        <v>11801.307692307691</v>
+        <v>14942.5</v>
       </c>
       <c r="V23" s="15">
         <f>S23*50</f>
-        <v>7670850</v>
+        <v>1494250</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -14132,14 +13969,14 @@
       <c r="B24" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D24" s="15">
+      <c r="C24" s="15">
         <v>1</v>
       </c>
       <c r="E24" s="15">
-        <v>30632</v>
+        <v>28367</v>
       </c>
       <c r="F24" s="15">
-        <v>895794676</v>
+        <v>913099181</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>16</v>
@@ -14151,39 +13988,39 @@
         <v>1</v>
       </c>
       <c r="J24" s="27">
-        <v>43245.417928240742</v>
+        <v>43278.604861111111</v>
       </c>
       <c r="K24" s="15">
-        <v>30632</v>
+        <v>28370</v>
       </c>
       <c r="L24" s="15">
-        <v>4522</v>
+        <v>5505</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N24" s="15">
-        <v>14589298</v>
+        <v>14682549</v>
       </c>
       <c r="P24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28367</v>
       </c>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>30632</v>
+        <v>0</v>
       </c>
       <c r="R24" s="33">
         <f>SUM(C19:C55)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S24" s="33">
         <f>SUM(P18:P69)</f>
-        <v>766125</v>
+        <v>480473</v>
       </c>
       <c r="T24" s="33">
         <f>S24/R24</f>
-        <v>54723.214285714283</v>
+        <v>30029.5625</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -14198,10 +14035,10 @@
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10">
-        <v>30620</v>
+        <v>28365</v>
       </c>
       <c r="F25" s="10">
-        <v>895795113</v>
+        <v>913099183</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>16</v>
@@ -14213,24 +14050,24 @@
         <v>1</v>
       </c>
       <c r="J25" s="14">
-        <v>43245.418333333335</v>
+        <v>43278.604861111111</v>
       </c>
       <c r="K25" s="10">
-        <v>30620</v>
+        <v>28365</v>
       </c>
       <c r="L25" s="10">
-        <v>4523</v>
+        <v>5504</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N25" s="10">
-        <v>14589299</v>
+        <v>14682550</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10">
         <f t="shared" si="0"/>
-        <v>30620</v>
+        <v>28365</v>
       </c>
       <c r="Q25" s="10">
         <f t="shared" si="1"/>
@@ -14238,27 +14075,27 @@
       </c>
       <c r="R25" s="33">
         <f>SUM(D11:D65)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="S25" s="33">
         <f>SUM(Q11:Q68)</f>
-        <v>919542</v>
+        <v>510358</v>
       </c>
       <c r="T25" s="33">
         <f>S25/R25</f>
-        <v>34057.111111111109</v>
+        <v>28353.222222222223</v>
       </c>
       <c r="V25" s="15">
         <f>R25*71.08</f>
-        <v>1919.1599999999999</v>
+        <v>1279.44</v>
       </c>
       <c r="W25" s="15">
         <f>V23-V25</f>
-        <v>7668930.8399999999</v>
+        <v>1492970.56</v>
       </c>
       <c r="X25" s="15">
         <f>S23/R25</f>
-        <v>5682.1111111111113</v>
+        <v>1660.2777777777778</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -14272,10 +14109,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="15">
-        <v>30653</v>
+        <v>28418</v>
       </c>
       <c r="F26" s="15">
-        <v>895802554</v>
+        <v>913112171</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>16</v>
@@ -14287,19 +14124,19 @@
         <v>1</v>
       </c>
       <c r="J26" s="27">
-        <v>43245.422430555554</v>
+        <v>43278.612800925926</v>
       </c>
       <c r="K26" s="15">
-        <v>30653</v>
+        <v>28418</v>
       </c>
       <c r="L26" s="15">
-        <v>4524</v>
+        <v>5509</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N26" s="15">
-        <v>14589350</v>
+        <v>14682620</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" si="0"/>
@@ -14307,7 +14144,7 @@
       </c>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>30653</v>
+        <v>28418</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="15" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14317,14 +14154,14 @@
       <c r="B27" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="15">
+      <c r="C27" s="15">
         <v>1</v>
       </c>
       <c r="E27" s="15">
-        <v>30697</v>
+        <v>28313</v>
       </c>
       <c r="F27" s="15">
-        <v>895807751</v>
+        <v>913155312</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>16</v>
@@ -14336,27 +14173,27 @@
         <v>1</v>
       </c>
       <c r="J27" s="27">
-        <v>43245.424479166664</v>
+        <v>43278.636400462965</v>
       </c>
       <c r="K27" s="15">
-        <v>30692</v>
+        <v>28313</v>
       </c>
       <c r="L27" s="15">
-        <v>4525</v>
+        <v>5510</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N27" s="15">
-        <v>14589372</v>
+        <v>14682875</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28313</v>
       </c>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>30697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -14366,14 +14203,14 @@
       <c r="B28" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="15">
+      <c r="C28" s="15">
         <v>1</v>
       </c>
       <c r="E28" s="15">
-        <v>30690</v>
+        <v>28314</v>
       </c>
       <c r="F28" s="15">
-        <v>895808222</v>
+        <v>913155418</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>16</v>
@@ -14385,27 +14222,27 @@
         <v>1</v>
       </c>
       <c r="J28" s="27">
-        <v>43245.424687500003</v>
+        <v>43278.636446759258</v>
       </c>
       <c r="K28" s="15">
-        <v>30686</v>
+        <v>28314</v>
       </c>
       <c r="L28" s="15">
-        <v>4526</v>
+        <v>5511</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N28" s="15">
-        <v>14589376</v>
+        <v>14682876</v>
       </c>
       <c r="P28" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28314</v>
       </c>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>30690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -14419,10 +14256,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="15">
-        <v>30681</v>
+        <v>28320</v>
       </c>
       <c r="F29" s="15">
-        <v>895809488</v>
+        <v>913156882</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>16</v>
@@ -14434,23 +14271,23 @@
         <v>1</v>
       </c>
       <c r="J29" s="27">
-        <v>43245.425671296296</v>
+        <v>43278.637233796297</v>
       </c>
       <c r="K29" s="15">
-        <v>30681</v>
+        <v>28322</v>
       </c>
       <c r="L29" s="15">
-        <v>4527</v>
+        <v>5512</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N29" s="15">
-        <v>14589380</v>
+        <v>14682888</v>
       </c>
       <c r="P29" s="15">
         <f t="shared" si="0"/>
-        <v>30681</v>
+        <v>28320</v>
       </c>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
@@ -14468,10 +14305,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="15">
-        <v>30641</v>
+        <v>28200</v>
       </c>
       <c r="F30" s="15">
-        <v>895820167</v>
+        <v>913201152</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>16</v>
@@ -14479,24 +14316,27 @@
       <c r="H30" s="15" t="s">
         <v>0</v>
       </c>
+      <c r="I30" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="J30" s="27">
-        <v>43245.434525462966</v>
+        <v>43278.659085648149</v>
       </c>
       <c r="K30" s="15">
-        <v>30641</v>
+        <v>28200</v>
       </c>
       <c r="L30" s="15">
-        <v>4528</v>
+        <v>5513</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N30" s="15">
-        <v>14589413</v>
+        <v>14683422</v>
       </c>
       <c r="P30" s="15">
         <f t="shared" si="0"/>
-        <v>30641</v>
+        <v>28200</v>
       </c>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
@@ -14514,10 +14354,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="15">
-        <v>30623</v>
+        <v>28193</v>
       </c>
       <c r="F31" s="15">
-        <v>895826744</v>
+        <v>913201447</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>16</v>
@@ -14529,23 +14369,23 @@
         <v>1</v>
       </c>
       <c r="J31" s="27">
-        <v>43245.440081018518</v>
+        <v>43278.659224537034</v>
       </c>
       <c r="K31" s="15">
-        <v>30623</v>
+        <v>28193</v>
       </c>
       <c r="L31" s="15">
-        <v>4530</v>
+        <v>5514</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N31" s="15">
-        <v>14589459</v>
+        <v>14683434</v>
       </c>
       <c r="P31" s="15">
         <f t="shared" si="0"/>
-        <v>30623</v>
+        <v>28193</v>
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
@@ -14563,10 +14403,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="15">
-        <v>30614</v>
+        <v>28191</v>
       </c>
       <c r="F32" s="15">
-        <v>895828734</v>
+        <v>913201483</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>16</v>
@@ -14578,23 +14418,23 @@
         <v>1</v>
       </c>
       <c r="J32" s="27">
-        <v>43245.44195601852</v>
+        <v>43278.659247685187</v>
       </c>
       <c r="K32" s="15">
-        <v>30614</v>
+        <v>28193</v>
       </c>
       <c r="L32" s="15">
-        <v>4531</v>
+        <v>5515</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N32" s="15">
-        <v>14589468</v>
+        <v>14683435</v>
       </c>
       <c r="P32" s="15">
         <f t="shared" si="0"/>
-        <v>30614</v>
+        <v>28191</v>
       </c>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
@@ -14612,10 +14452,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="15">
-        <v>30618</v>
+        <v>28178</v>
       </c>
       <c r="F33" s="15">
-        <v>895829542</v>
+        <v>913203113</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>16</v>
@@ -14627,23 +14467,23 @@
         <v>1</v>
       </c>
       <c r="J33" s="27">
-        <v>43245.442881944444</v>
+        <v>43278.660046296296</v>
       </c>
       <c r="K33" s="15">
-        <v>30618</v>
+        <v>28178</v>
       </c>
       <c r="L33" s="15">
-        <v>4532</v>
+        <v>5516</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N33" s="15">
-        <v>14589470</v>
+        <v>14683461</v>
       </c>
       <c r="P33" s="15">
         <f t="shared" si="0"/>
-        <v>30618</v>
+        <v>28178</v>
       </c>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
@@ -14657,14 +14497,14 @@
       <c r="B34" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="10">
+      <c r="C34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="10">
-        <v>30603</v>
+        <v>28123</v>
       </c>
       <c r="F34" s="10">
-        <v>895835029</v>
+        <v>913209228</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>16</v>
@@ -14676,48 +14516,47 @@
         <v>1</v>
       </c>
       <c r="J34" s="14">
-        <v>43245.446469907409</v>
+        <v>43278.66207175926</v>
       </c>
       <c r="K34" s="10">
-        <v>30598</v>
+        <v>28123</v>
       </c>
       <c r="L34" s="10">
-        <v>4533</v>
+        <v>5518</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N34" s="10">
-        <v>14589505</v>
+        <v>14683533</v>
       </c>
       <c r="P34" s="10">
         <f t="shared" ref="P34:P49" si="2">C34*E34</f>
-        <v>0</v>
+        <v>28123</v>
       </c>
       <c r="Q34" s="10">
         <f t="shared" ref="Q34:Q49" si="3">D34*E34</f>
-        <v>30603</v>
-      </c>
-      <c r="R34" s="19">
+        <v>0</v>
+      </c>
+      <c r="R34" s="10">
         <f>R36-R35</f>
-        <v>6</v>
-      </c>
-      <c r="S34" s="19">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
         <f>S36-S35</f>
-        <v>183515</v>
-      </c>
-      <c r="T34" s="19">
+        <v>-433</v>
+      </c>
+      <c r="T34" s="10" t="e">
         <f>S34/R34</f>
-        <v>30585.833333333332</v>
-      </c>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" s="10">
         <f>S34*50</f>
-        <v>9175750</v>
-      </c>
-      <c r="W34" s="19">
+        <v>-21650</v>
+      </c>
+      <c r="W34" s="10">
         <f>V32-V34</f>
-        <v>-9175750</v>
+        <v>21650</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -14727,14 +14566,14 @@
       <c r="B35" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="10">
+      <c r="C35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10">
-        <v>30613</v>
+        <v>28117</v>
       </c>
       <c r="F35" s="10">
-        <v>895842060</v>
+        <v>913209328</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>16</v>
@@ -14746,43 +14585,40 @@
         <v>1</v>
       </c>
       <c r="J35" s="14">
-        <v>43245.450104166666</v>
+        <v>43278.662083333336</v>
       </c>
       <c r="K35" s="10">
-        <v>30613</v>
+        <v>28117</v>
       </c>
       <c r="L35" s="10">
-        <v>4534</v>
+        <v>5517</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N35" s="10">
-        <v>14589527</v>
+        <v>14683534</v>
       </c>
       <c r="P35" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28117</v>
       </c>
       <c r="Q35" s="10">
         <f t="shared" si="3"/>
-        <v>30613</v>
-      </c>
-      <c r="R35" s="19">
-        <f>SUM(C36:C146)</f>
-        <v>36</v>
-      </c>
-      <c r="S35" s="19">
-        <f>SUM(P35:P124)</f>
-        <v>1102638</v>
-      </c>
-      <c r="T35" s="19">
+        <v>0</v>
+      </c>
+      <c r="R35" s="10">
+        <f>SUM(C27:C146)</f>
+        <v>11</v>
+      </c>
+      <c r="S35" s="10">
+        <f>SUM(P27:P124)</f>
+        <v>310181</v>
+      </c>
+      <c r="T35" s="10">
         <f>S35/R35</f>
-        <v>30628.833333333332</v>
-      </c>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
+        <v>28198.272727272728</v>
+      </c>
     </row>
     <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
@@ -14791,14 +14627,14 @@
       <c r="B36" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="10">
+      <c r="C36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="10">
-        <v>30628</v>
+        <v>28118</v>
       </c>
       <c r="F36" s="10">
-        <v>895844378</v>
+        <v>913216695</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>16</v>
@@ -14810,48 +14646,47 @@
         <v>1</v>
       </c>
       <c r="J36" s="14">
-        <v>43245.451608796298</v>
+        <v>43278.665347222224</v>
       </c>
       <c r="K36" s="10">
-        <v>30627</v>
+        <v>28118</v>
       </c>
       <c r="L36" s="10">
-        <v>4536</v>
+        <v>5520</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N36" s="10">
-        <v>14589530</v>
+        <v>14683596</v>
       </c>
       <c r="P36" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28118</v>
       </c>
       <c r="Q36" s="10">
         <f t="shared" si="3"/>
-        <v>30628</v>
-      </c>
-      <c r="R36" s="19">
+        <v>0</v>
+      </c>
+      <c r="R36" s="10">
         <f>SUM(D34:D105)</f>
-        <v>42</v>
-      </c>
-      <c r="S36" s="19">
+        <v>11</v>
+      </c>
+      <c r="S36" s="10">
         <f>SUM(Q34:Q99)</f>
-        <v>1286153</v>
-      </c>
-      <c r="T36" s="19">
+        <v>309748</v>
+      </c>
+      <c r="T36" s="10">
         <f>S36/R36</f>
-        <v>30622.690476190477</v>
-      </c>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19">
+        <v>28158.909090909092</v>
+      </c>
+      <c r="V36" s="10">
         <f>R36*67.08</f>
-        <v>2817.36</v>
-      </c>
-      <c r="W36" s="19">
+        <v>737.88</v>
+      </c>
+      <c r="W36" s="10">
         <f>V34-V36</f>
-        <v>9172932.6400000006</v>
+        <v>-22387.88</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -14865,10 +14700,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="10">
-        <v>30606</v>
+        <v>28114</v>
       </c>
       <c r="F37" s="10">
-        <v>895847451</v>
+        <v>913216765</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>16</v>
@@ -14880,23 +14715,23 @@
         <v>1</v>
       </c>
       <c r="J37" s="14">
-        <v>43245.454456018517</v>
+        <v>43278.665358796294</v>
       </c>
       <c r="K37" s="10">
-        <v>30606</v>
+        <v>28114</v>
       </c>
       <c r="L37" s="10">
-        <v>4537</v>
+        <v>5519</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N37" s="10">
-        <v>14589544</v>
+        <v>14683597</v>
       </c>
       <c r="P37" s="10">
         <f t="shared" si="2"/>
-        <v>30606</v>
+        <v>28114</v>
       </c>
       <c r="Q37" s="10">
         <f t="shared" si="3"/>
@@ -14910,14 +14745,14 @@
       <c r="B38" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="10">
+      <c r="D38" s="10">
         <v>1</v>
       </c>
       <c r="E38" s="10">
-        <v>30601</v>
+        <v>28129</v>
       </c>
       <c r="F38" s="10">
-        <v>895848183</v>
+        <v>913230688</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>16</v>
@@ -14929,86 +14764,86 @@
         <v>1</v>
       </c>
       <c r="J38" s="14">
-        <v>43245.455578703702</v>
+        <v>43278.672129629631</v>
       </c>
       <c r="K38" s="10">
-        <v>30601</v>
+        <v>28129</v>
       </c>
       <c r="L38" s="10">
-        <v>4535</v>
+        <v>5521</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N38" s="10">
-        <v>14589546</v>
+        <v>14683751</v>
       </c>
       <c r="P38" s="10">
         <f t="shared" si="2"/>
-        <v>30601</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19" t="s">
+        <v>28129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="19">
-        <v>1</v>
-      </c>
-      <c r="E39" s="19">
-        <v>30583</v>
-      </c>
-      <c r="F39" s="19">
-        <v>895855688</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="32">
-        <v>43245.460393518515</v>
-      </c>
-      <c r="K39" s="19">
-        <v>30583</v>
-      </c>
-      <c r="L39" s="19">
-        <v>4538</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="N39" s="19">
-        <v>14589581</v>
-      </c>
-      <c r="P39" s="19">
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
+        <v>28142</v>
+      </c>
+      <c r="F39" s="10">
+        <v>913236551</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="14">
+        <v>43278.675578703704</v>
+      </c>
+      <c r="K39" s="10">
+        <v>28142</v>
+      </c>
+      <c r="L39" s="10">
+        <v>5523</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="N39" s="10">
+        <v>14683863</v>
+      </c>
+      <c r="P39" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="10">
         <f t="shared" si="3"/>
-        <v>30583</v>
-      </c>
-      <c r="V39" s="19">
+        <v>28142</v>
+      </c>
+      <c r="V39" s="10">
         <f>R39*71.08</f>
         <v>0</v>
       </c>
-      <c r="W39" s="19">
+      <c r="W39" s="10">
         <f>V37-V39</f>
         <v>0</v>
       </c>
-      <c r="X39" s="19" t="e">
+      <c r="X39" s="10" t="e">
         <f>S37/R39</f>
         <v>#DIV/0!</v>
       </c>
@@ -15024,10 +14859,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="10">
-        <v>30697</v>
+        <v>28149</v>
       </c>
       <c r="F40" s="10">
-        <v>895889068</v>
+        <v>913237146</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>16</v>
@@ -15039,19 +14874,19 @@
         <v>1</v>
       </c>
       <c r="J40" s="14">
-        <v>43245.483935185184</v>
+        <v>43278.676006944443</v>
       </c>
       <c r="K40" s="10">
-        <v>30696</v>
+        <v>28148</v>
       </c>
       <c r="L40" s="10">
-        <v>4539</v>
+        <v>5524</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N40" s="10">
-        <v>14589742</v>
+        <v>14683883</v>
       </c>
       <c r="P40" s="10">
         <f t="shared" si="2"/>
@@ -15059,56 +14894,56 @@
       </c>
       <c r="Q40" s="10">
         <f t="shared" si="3"/>
-        <v>30697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="s">
+        <v>28149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="19">
-        <v>1</v>
-      </c>
-      <c r="E41" s="19">
-        <v>30697</v>
-      </c>
-      <c r="F41" s="19">
-        <v>895889090</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="32">
-        <v>43245.483981481484</v>
-      </c>
-      <c r="K41" s="19">
-        <v>30697</v>
-      </c>
-      <c r="L41" s="19">
-        <v>4540</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="N41" s="19">
-        <v>14589743</v>
-      </c>
-      <c r="P41" s="19">
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <v>28148</v>
+      </c>
+      <c r="F41" s="10">
+        <v>913238239</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="14">
+        <v>43278.676828703705</v>
+      </c>
+      <c r="K41" s="10">
+        <v>28148</v>
+      </c>
+      <c r="L41" s="10">
+        <v>5525</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N41" s="10">
+        <v>14683914</v>
+      </c>
+      <c r="P41" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="10">
         <f t="shared" si="3"/>
-        <v>30697</v>
+        <v>28148</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
@@ -15122,10 +14957,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="19">
-        <v>30683</v>
+        <v>28172</v>
       </c>
       <c r="F42" s="19">
-        <v>895891629</v>
+        <v>913250045</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>16</v>
@@ -15137,19 +14972,19 @@
         <v>1</v>
       </c>
       <c r="J42" s="32">
-        <v>43245.486655092594</v>
+        <v>43278.684363425928</v>
       </c>
       <c r="K42" s="19">
-        <v>30682</v>
+        <v>28172</v>
       </c>
       <c r="L42" s="19">
-        <v>4543</v>
+        <v>5527</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N42" s="19">
-        <v>14589751</v>
+        <v>14683999</v>
       </c>
       <c r="P42" s="19">
         <f t="shared" si="2"/>
@@ -15157,7 +14992,7 @@
       </c>
       <c r="Q42" s="19">
         <f t="shared" si="3"/>
-        <v>30683</v>
+        <v>28172</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
@@ -15171,10 +15006,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="19">
-        <v>30686</v>
+        <v>28172</v>
       </c>
       <c r="F43" s="19">
-        <v>895891672</v>
+        <v>913250946</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>16</v>
@@ -15186,19 +15021,19 @@
         <v>1</v>
       </c>
       <c r="J43" s="32">
-        <v>43245.486678240741</v>
+        <v>43278.684953703705</v>
       </c>
       <c r="K43" s="19">
-        <v>30686</v>
+        <v>28172</v>
       </c>
       <c r="L43" s="19">
-        <v>4542</v>
+        <v>5528</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N43" s="19">
-        <v>14589752</v>
+        <v>14684001</v>
       </c>
       <c r="P43" s="19">
         <f t="shared" si="2"/>
@@ -15206,7 +15041,7 @@
       </c>
       <c r="Q43" s="19">
         <f t="shared" si="3"/>
-        <v>30686</v>
+        <v>28172</v>
       </c>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15220,10 +15055,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="10">
-        <v>30683</v>
+        <v>28174</v>
       </c>
       <c r="F44" s="10">
-        <v>895895231</v>
+        <v>913251828</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>16</v>
@@ -15235,19 +15070,19 @@
         <v>1</v>
       </c>
       <c r="J44" s="14">
-        <v>43245.490648148145</v>
+        <v>43278.685543981483</v>
       </c>
       <c r="K44" s="10">
-        <v>30683</v>
+        <v>28174</v>
       </c>
       <c r="L44" s="10">
-        <v>4546</v>
+        <v>5530</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N44" s="10">
-        <v>14589781</v>
+        <v>14684012</v>
       </c>
       <c r="P44" s="10">
         <f t="shared" si="2"/>
@@ -15255,7 +15090,7 @@
       </c>
       <c r="Q44" s="10">
         <f t="shared" si="3"/>
-        <v>30683</v>
+        <v>28174</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15269,10 +15104,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="10">
-        <v>30695</v>
+        <v>28175</v>
       </c>
       <c r="F45" s="10">
-        <v>895897486</v>
+        <v>913251836</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>16</v>
@@ -15284,19 +15119,19 @@
         <v>1</v>
       </c>
       <c r="J45" s="14">
-        <v>43245.492743055554</v>
+        <v>43278.685543981483</v>
       </c>
       <c r="K45" s="10">
-        <v>30695</v>
+        <v>28175</v>
       </c>
       <c r="L45" s="10">
-        <v>4547</v>
+        <v>5529</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N45" s="10">
-        <v>14589794</v>
+        <v>14684013</v>
       </c>
       <c r="P45" s="10">
         <f t="shared" si="2"/>
@@ -15304,7 +15139,7 @@
       </c>
       <c r="Q45" s="10">
         <f t="shared" si="3"/>
-        <v>30695</v>
+        <v>28175</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15318,10 +15153,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="10">
-        <v>30696</v>
+        <v>28172</v>
       </c>
       <c r="F46" s="10">
-        <v>895897497</v>
+        <v>913252043</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>16</v>
@@ -15333,19 +15168,19 @@
         <v>1</v>
       </c>
       <c r="J46" s="14">
-        <v>43245.492777777778</v>
+        <v>43278.685682870368</v>
       </c>
       <c r="K46" s="10">
-        <v>30695</v>
+        <v>28172</v>
       </c>
       <c r="L46" s="10">
-        <v>4548</v>
+        <v>5531</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N46" s="10">
-        <v>14589795</v>
+        <v>14684014</v>
       </c>
       <c r="P46" s="10">
         <f t="shared" si="2"/>
@@ -15353,27 +15188,27 @@
       </c>
       <c r="Q46" s="10">
         <f t="shared" si="3"/>
-        <v>30696</v>
+        <v>28172</v>
       </c>
       <c r="R46" s="10">
         <f>R48-R47</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S46" s="10">
         <f>S48-S47</f>
-        <v>122295</v>
+        <v>253477</v>
       </c>
       <c r="T46" s="10">
         <f>S46/R46</f>
-        <v>30573.75</v>
+        <v>28164.111111111109</v>
       </c>
       <c r="V46" s="10">
         <f>S46*50</f>
-        <v>6114750</v>
+        <v>12673850</v>
       </c>
       <c r="W46" s="10">
         <f>V44-V46</f>
-        <v>-6114750</v>
+        <v>-12673850</v>
       </c>
     </row>
     <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15387,10 +15222,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="10">
-        <v>30694</v>
+        <v>28153</v>
       </c>
       <c r="F47" s="10">
-        <v>895898110</v>
+        <v>913252979</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>16</v>
@@ -15402,19 +15237,19 @@
         <v>1</v>
       </c>
       <c r="J47" s="14">
-        <v>43245.494074074071</v>
+        <v>43278.686469907407</v>
       </c>
       <c r="K47" s="10">
-        <v>30694</v>
+        <v>28153</v>
       </c>
       <c r="L47" s="10">
-        <v>4549</v>
+        <v>5532</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N47" s="10">
-        <v>14589797</v>
+        <v>14684026</v>
       </c>
       <c r="P47" s="10">
         <f t="shared" si="2"/>
@@ -15422,19 +15257,19 @@
       </c>
       <c r="Q47" s="10">
         <f t="shared" si="3"/>
-        <v>30694</v>
+        <v>28153</v>
       </c>
       <c r="R47" s="10">
         <f>SUM(C44:C158)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S47" s="10">
         <f>SUM(P44:P136)</f>
-        <v>1041431</v>
-      </c>
-      <c r="T47" s="10">
+        <v>0</v>
+      </c>
+      <c r="T47" s="10" t="e">
         <f>S47/R47</f>
-        <v>30630.323529411766</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -15448,10 +15283,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="10">
-        <v>30708</v>
+        <v>28162</v>
       </c>
       <c r="F48" s="10">
-        <v>895899096</v>
+        <v>913253986</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>16</v>
@@ -15463,19 +15298,19 @@
         <v>1</v>
       </c>
       <c r="J48" s="14">
-        <v>43245.495937500003</v>
+        <v>43278.687222222223</v>
       </c>
       <c r="K48" s="10">
-        <v>30705</v>
+        <v>28162</v>
       </c>
       <c r="L48" s="10">
-        <v>4551</v>
+        <v>5533</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N48" s="10">
-        <v>14589804</v>
+        <v>14684039</v>
       </c>
       <c r="P48" s="10">
         <f t="shared" si="2"/>
@@ -15483,174 +15318,60 @@
       </c>
       <c r="Q48" s="10">
         <f t="shared" si="3"/>
-        <v>30708</v>
+        <v>28162</v>
       </c>
       <c r="R48" s="10">
         <f>SUM(D40:D117)</f>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="S48" s="10">
         <f>SUM(Q40:Q111)</f>
-        <v>1163726</v>
+        <v>253477</v>
       </c>
       <c r="T48" s="10">
         <f>S48/R48</f>
-        <v>30624.36842105263</v>
+        <v>28164.111111111109</v>
       </c>
       <c r="V48" s="10">
         <f>R48*67.08</f>
-        <v>2549.04</v>
+        <v>603.72</v>
       </c>
       <c r="W48" s="10">
         <f>V46-V48</f>
-        <v>6112200.96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10">
-        <v>30703</v>
-      </c>
-      <c r="F49" s="10">
-        <v>895899649</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="14">
-        <v>43245.496527777781</v>
-      </c>
-      <c r="K49" s="10">
-        <v>30703</v>
-      </c>
-      <c r="L49" s="10">
-        <v>4553</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="N49" s="10">
-        <v>14589808</v>
-      </c>
+        <v>12673246.279999999</v>
+      </c>
+    </row>
+    <row r="49" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J49" s="14"/>
       <c r="P49" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q49" s="10">
         <f t="shared" si="3"/>
-        <v>30703</v>
+        <v>0</v>
       </c>
       <c r="V49" s="10">
         <f>S49*50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="15">
-        <v>1</v>
-      </c>
-      <c r="E50" s="15">
-        <v>30708</v>
-      </c>
-      <c r="F50" s="15">
-        <v>895900824</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="27">
-        <v>43245.498518518521</v>
-      </c>
-      <c r="K50" s="15">
-        <v>30708</v>
-      </c>
-      <c r="L50" s="15">
-        <v>4554</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="N50" s="15">
-        <v>14589822</v>
-      </c>
+    <row r="50" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J50" s="27"/>
       <c r="P50" s="15">
         <f t="shared" ref="P50:P80" si="4">C50*E50</f>
         <v>0</v>
       </c>
       <c r="Q50" s="15">
         <f t="shared" ref="Q50:Q80" si="5">D50*E50</f>
-        <v>30708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="15">
-        <v>1</v>
-      </c>
-      <c r="E51" s="15">
-        <v>30691</v>
-      </c>
-      <c r="F51" s="15">
-        <v>895911246</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="27">
-        <v>43245.542685185188</v>
-      </c>
-      <c r="K51" s="15">
-        <v>30691</v>
-      </c>
-      <c r="L51" s="15">
-        <v>4556</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="N51" s="15">
-        <v>14589888</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="27"/>
       <c r="P51" s="15">
         <f t="shared" si="4"/>
-        <v>30691</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="15">
         <f t="shared" si="5"/>
@@ -15661,95 +15382,22 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D52" s="15">
-        <v>1</v>
-      </c>
-      <c r="E52" s="15">
-        <v>30697</v>
-      </c>
-      <c r="F52" s="15">
-        <v>895912789</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" s="27">
-        <v>43245.544236111113</v>
-      </c>
-      <c r="K52" s="15">
-        <v>30696</v>
-      </c>
-      <c r="L52" s="15">
-        <v>4557</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="N52" s="15">
-        <v>14589896</v>
-      </c>
+    <row r="52" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J52" s="27"/>
       <c r="P52" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q52" s="15">
         <f t="shared" si="5"/>
-        <v>30697</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C53" s="15">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15">
-        <v>30681</v>
-      </c>
-      <c r="F53" s="15">
-        <v>895914495</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="27">
-        <v>43245.546539351853</v>
-      </c>
-      <c r="K53" s="15">
-        <v>30681</v>
-      </c>
-      <c r="L53" s="15">
-        <v>4558</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="N53" s="15">
-        <v>14589897</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="10:24" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J53" s="27"/>
       <c r="P53" s="15">
         <f t="shared" si="4"/>
-        <v>30681</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="15">
         <f t="shared" si="5"/>
@@ -15757,68 +15405,30 @@
       </c>
       <c r="R53" s="15">
         <f>R55-R54</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S53" s="15">
         <f>S55-S54</f>
-        <v>152878</v>
+        <v>281619</v>
       </c>
       <c r="T53" s="15">
         <f>S53/R53</f>
-        <v>30575.599999999999</v>
+        <v>28161.9</v>
       </c>
       <c r="V53" s="15">
         <f>S53*50</f>
-        <v>7643900</v>
+        <v>14080950</v>
       </c>
       <c r="W53" s="15">
         <f>V51-V53</f>
-        <v>-7643900</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="10">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10">
-        <v>30681</v>
-      </c>
-      <c r="F54" s="10">
-        <v>895917106</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J54" s="14">
-        <v>43245.550659722219</v>
-      </c>
-      <c r="K54" s="10">
-        <v>30681</v>
-      </c>
-      <c r="L54" s="10">
-        <v>4560</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="N54" s="10">
-        <v>14589924</v>
-      </c>
+        <v>-14080950</v>
+      </c>
+    </row>
+    <row r="54" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J54" s="14"/>
       <c r="P54" s="10">
         <f t="shared" si="4"/>
-        <v>30681</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="10">
         <f t="shared" si="5"/>
@@ -15826,57 +15436,22 @@
       </c>
       <c r="R54" s="37">
         <f>SUM(C51:C165)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S54" s="37">
         <f>SUM(P49:P143)</f>
-        <v>1041431</v>
-      </c>
-      <c r="T54" s="37">
+        <v>0</v>
+      </c>
+      <c r="T54" s="37" t="e">
         <f>S54/R54</f>
-        <v>30630.323529411766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" s="10">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10">
-        <v>30681</v>
-      </c>
-      <c r="F55" s="10">
-        <v>895917110</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="14">
-        <v>43245.550671296296</v>
-      </c>
-      <c r="K55" s="10">
-        <v>30681</v>
-      </c>
-      <c r="L55" s="10">
-        <v>4550</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="N55" s="10">
-        <v>14589925</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J55" s="14"/>
       <c r="P55" s="10">
         <f t="shared" si="4"/>
-        <v>30681</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="10">
         <f t="shared" si="5"/>
@@ -15884,65 +15459,30 @@
       </c>
       <c r="R55" s="37">
         <f>SUM(D39:D124)</f>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="S55" s="37">
         <f>SUM(Q39:Q118)</f>
-        <v>1194309</v>
+        <v>281619</v>
       </c>
       <c r="T55" s="37">
         <f>S55/R55</f>
-        <v>30623.307692307691</v>
+        <v>28161.9</v>
       </c>
       <c r="V55" s="10">
         <f>R55*67.08</f>
-        <v>2616.12</v>
+        <v>670.8</v>
       </c>
       <c r="W55" s="10">
         <f>V53-V55</f>
-        <v>7641283.8799999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="10">
-        <v>2</v>
-      </c>
-      <c r="E56" s="10">
-        <v>30680</v>
-      </c>
-      <c r="F56" s="10">
-        <v>895917118</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="14">
-        <v>43245.550671296296</v>
-      </c>
-      <c r="K56" s="10">
-        <v>30680</v>
-      </c>
-      <c r="L56" s="10">
-        <v>4559</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N56" s="10">
-        <v>14589926</v>
-      </c>
+        <v>14080279.199999999</v>
+      </c>
+    </row>
+    <row r="56" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J56" s="14"/>
       <c r="P56" s="10">
         <f t="shared" si="4"/>
-        <v>61360</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="10">
         <f t="shared" si="5"/>
@@ -15955,291 +15495,66 @@
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="19">
-        <v>1</v>
-      </c>
-      <c r="E57" s="19">
-        <v>30678</v>
-      </c>
-      <c r="F57" s="19">
-        <v>895917271</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J57" s="32">
-        <v>43245.550740740742</v>
-      </c>
-      <c r="K57" s="19">
-        <v>30678</v>
-      </c>
-      <c r="L57" s="19">
-        <v>4544</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="N57" s="19">
-        <v>14589928</v>
-      </c>
+    <row r="57" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J57" s="32"/>
       <c r="P57" s="19">
         <f t="shared" si="4"/>
-        <v>30678</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="19">
-        <v>1</v>
-      </c>
-      <c r="E58" s="19">
-        <v>30678</v>
-      </c>
-      <c r="F58" s="19">
-        <v>895917496</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J58" s="32">
-        <v>43245.550891203704</v>
-      </c>
-      <c r="K58" s="19">
-        <v>30678</v>
-      </c>
-      <c r="L58" s="19">
-        <v>4561</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="N58" s="19">
-        <v>14589930</v>
-      </c>
+    <row r="58" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J58" s="32"/>
       <c r="P58" s="19">
         <f t="shared" si="4"/>
-        <v>30678</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="15">
-        <v>2</v>
-      </c>
-      <c r="E59" s="15">
-        <v>30657</v>
-      </c>
-      <c r="F59" s="15">
-        <v>895927546</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="27">
-        <v>43245.563275462962</v>
-      </c>
-      <c r="K59" s="15">
-        <v>30657</v>
-      </c>
-      <c r="L59" s="15">
-        <v>4564</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="N59" s="15">
-        <v>14589970</v>
-      </c>
+    <row r="59" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J59" s="27"/>
       <c r="P59" s="15">
         <f t="shared" si="4"/>
-        <v>61314</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="15">
-        <v>1</v>
-      </c>
-      <c r="E60" s="15">
-        <v>30643</v>
-      </c>
-      <c r="F60" s="15">
-        <v>895928741</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J60" s="27">
-        <v>43245.563958333332</v>
-      </c>
-      <c r="K60" s="15">
-        <v>30643</v>
-      </c>
-      <c r="L60" s="15">
-        <v>4568</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="N60" s="15">
-        <v>14589976</v>
-      </c>
+    <row r="60" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J60" s="27"/>
       <c r="P60" s="15">
         <f t="shared" si="4"/>
-        <v>30643</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10">
-        <v>30643</v>
-      </c>
-      <c r="F61" s="10">
-        <v>895929257</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J61" s="14">
-        <v>43245.564155092594</v>
-      </c>
-      <c r="K61" s="10">
-        <v>30643</v>
-      </c>
-      <c r="L61" s="10">
-        <v>4569</v>
-      </c>
-      <c r="M61" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="N61" s="10">
-        <v>14589977</v>
-      </c>
+    <row r="61" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J61" s="14"/>
       <c r="P61" s="10">
         <f t="shared" si="4"/>
-        <v>30643</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10">
-        <v>30633</v>
-      </c>
-      <c r="F62" s="10">
-        <v>895932310</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J62" s="14">
-        <v>43245.566608796296</v>
-      </c>
-      <c r="K62" s="10">
-        <v>30633</v>
-      </c>
-      <c r="L62" s="10">
-        <v>4571</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="N62" s="10">
-        <v>14589999</v>
-      </c>
+    <row r="62" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J62" s="14"/>
       <c r="P62" s="10">
         <f t="shared" si="4"/>
-        <v>30633</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="10">
         <f t="shared" si="5"/>
@@ -16266,49 +15581,11 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" s="10">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10">
-        <v>30636</v>
-      </c>
-      <c r="F63" s="10">
-        <v>895932657</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J63" s="14">
-        <v>43245.567002314812</v>
-      </c>
-      <c r="K63" s="10">
-        <v>30636</v>
-      </c>
-      <c r="L63" s="10">
-        <v>4572</v>
-      </c>
-      <c r="M63" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="N63" s="10">
-        <v>14590012</v>
-      </c>
+    <row r="63" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="14"/>
       <c r="P63" s="10">
         <f t="shared" si="4"/>
-        <v>30636</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="10">
         <f t="shared" si="5"/>
@@ -16316,412 +15593,111 @@
       </c>
       <c r="R63" s="37">
         <f>SUM(D61:D133)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S63" s="37">
         <f>SUM(Q61:Q127)</f>
-        <v>795379</v>
-      </c>
-      <c r="T63" s="37">
+        <v>0</v>
+      </c>
+      <c r="T63" s="37" t="e">
         <f>S63/R63</f>
-        <v>30591.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V63" s="10">
         <f>R63*67.08</f>
-        <v>1744.08</v>
+        <v>0</v>
       </c>
       <c r="W63" s="10" t="e">
         <f>V62-V63</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="10">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10">
-        <v>30567</v>
-      </c>
-      <c r="F64" s="10">
-        <v>895999057</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="14">
-        <v>43245.626469907409</v>
-      </c>
-      <c r="K64" s="10">
-        <v>30567</v>
-      </c>
-      <c r="L64" s="10">
-        <v>4574</v>
-      </c>
-      <c r="M64" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="N64" s="10">
-        <v>14590460</v>
-      </c>
+    <row r="64" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="14"/>
       <c r="P64" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q64" s="10">
         <f t="shared" si="5"/>
-        <v>30567</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="19">
-        <v>1</v>
-      </c>
-      <c r="E65" s="19">
-        <v>30553</v>
-      </c>
-      <c r="F65" s="19">
-        <v>896001076</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J65" s="32">
-        <v>43245.626979166664</v>
-      </c>
-      <c r="K65" s="19">
-        <v>30553</v>
-      </c>
-      <c r="L65" s="19">
-        <v>4575</v>
-      </c>
-      <c r="M65" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="N65" s="19">
-        <v>14590462</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J65" s="32"/>
       <c r="P65" s="19">
         <f t="shared" si="4"/>
-        <v>30553</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" s="15">
-        <v>1</v>
-      </c>
-      <c r="E66" s="15">
-        <v>30527</v>
-      </c>
-      <c r="F66" s="15">
-        <v>896014525</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J66" s="27">
-        <v>43245.63181712963</v>
-      </c>
-      <c r="K66" s="15">
-        <v>30527</v>
-      </c>
-      <c r="L66" s="15">
-        <v>4576</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="N66" s="15">
-        <v>14590524</v>
-      </c>
+    <row r="66" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J66" s="27"/>
       <c r="P66" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q66" s="15">
         <f t="shared" si="5"/>
-        <v>30527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="15">
-        <v>1</v>
-      </c>
-      <c r="E67" s="15">
-        <v>30525</v>
-      </c>
-      <c r="F67" s="15">
-        <v>896014779</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J67" s="27">
-        <v>43245.631967592592</v>
-      </c>
-      <c r="K67" s="15">
-        <v>30525</v>
-      </c>
-      <c r="L67" s="15">
-        <v>4577</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="N67" s="15">
-        <v>14590526</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J67" s="27"/>
       <c r="P67" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q67" s="15">
         <f t="shared" si="5"/>
-        <v>30525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D68" s="15">
-        <v>1</v>
-      </c>
-      <c r="E68" s="15">
-        <v>30533</v>
-      </c>
-      <c r="F68" s="15">
-        <v>896015788</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J68" s="27">
-        <v>43245.6330787037</v>
-      </c>
-      <c r="K68" s="15">
-        <v>30532</v>
-      </c>
-      <c r="L68" s="15">
-        <v>4578</v>
-      </c>
-      <c r="M68" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="N68" s="15">
-        <v>14590533</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="27"/>
       <c r="P68" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q68" s="15">
         <f t="shared" si="5"/>
-        <v>30533</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D69" s="15">
-        <v>1</v>
-      </c>
-      <c r="E69" s="15">
-        <v>30548</v>
-      </c>
-      <c r="F69" s="15">
-        <v>896016955</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J69" s="27">
-        <v>43245.633680555555</v>
-      </c>
-      <c r="K69" s="15">
-        <v>30547</v>
-      </c>
-      <c r="L69" s="15">
-        <v>4579</v>
-      </c>
-      <c r="M69" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="N69" s="15">
-        <v>14590543</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="27"/>
       <c r="P69" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q69" s="15">
         <f t="shared" si="5"/>
-        <v>30548</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D70" s="15">
-        <v>1</v>
-      </c>
-      <c r="E70" s="15">
-        <v>30539</v>
-      </c>
-      <c r="F70" s="15">
-        <v>896017226</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J70" s="27">
-        <v>43245.633900462963</v>
-      </c>
-      <c r="K70" s="15">
-        <v>30537</v>
-      </c>
-      <c r="L70" s="15">
-        <v>4580</v>
-      </c>
-      <c r="M70" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="N70" s="15">
-        <v>14590546</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="10:24" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J70" s="27"/>
       <c r="P70" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q70" s="15">
         <f t="shared" si="5"/>
-        <v>30539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="15">
-        <v>1</v>
-      </c>
-      <c r="E71" s="15">
-        <v>30539</v>
-      </c>
-      <c r="F71" s="15">
-        <v>896017859</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J71" s="27">
-        <v>43245.634421296294</v>
-      </c>
-      <c r="K71" s="15">
-        <v>30538</v>
-      </c>
-      <c r="L71" s="15">
-        <v>4581</v>
-      </c>
-      <c r="M71" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="N71" s="15">
-        <v>14590548</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="10:24" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J71" s="27"/>
       <c r="P71" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q71" s="15">
         <f t="shared" si="5"/>
-        <v>30539</v>
+        <v>0</v>
       </c>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
@@ -16731,53 +15707,15 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72" s="10">
-        <v>1</v>
-      </c>
-      <c r="E72" s="10">
-        <v>30548</v>
-      </c>
-      <c r="F72" s="10">
-        <v>896018783</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J72" s="14">
-        <v>43245.635000000002</v>
-      </c>
-      <c r="K72" s="10">
-        <v>30546</v>
-      </c>
-      <c r="L72" s="10">
-        <v>4582</v>
-      </c>
-      <c r="M72" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="N72" s="10">
-        <v>14590552</v>
-      </c>
+    <row r="72" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J72" s="14"/>
       <c r="P72" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q72" s="10">
         <f t="shared" si="5"/>
-        <v>30548</v>
+        <v>0</v>
       </c>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
@@ -16787,396 +15725,92 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="10">
-        <v>1</v>
-      </c>
-      <c r="E73" s="10">
-        <v>30550</v>
-      </c>
-      <c r="F73" s="10">
-        <v>896019200</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J73" s="14">
-        <v>43245.635277777779</v>
-      </c>
-      <c r="K73" s="10">
-        <v>30548</v>
-      </c>
-      <c r="L73" s="10">
-        <v>4583</v>
-      </c>
-      <c r="M73" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="N73" s="10">
-        <v>14590554</v>
-      </c>
+    <row r="73" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J73" s="14"/>
       <c r="P73" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q73" s="10">
         <f t="shared" si="5"/>
-        <v>30550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D74" s="10">
-        <v>1</v>
-      </c>
-      <c r="E74" s="10">
-        <v>30540</v>
-      </c>
-      <c r="F74" s="10">
-        <v>896019981</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J74" s="14">
-        <v>43245.635925925926</v>
-      </c>
-      <c r="K74" s="10">
-        <v>30539</v>
-      </c>
-      <c r="L74" s="10">
-        <v>4585</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="N74" s="10">
-        <v>14590557</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J74" s="14"/>
       <c r="P74" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q74" s="10">
         <f t="shared" si="5"/>
-        <v>30540</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10">
-        <v>30538</v>
-      </c>
-      <c r="F75" s="10">
-        <v>896020688</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J75" s="14">
-        <v>43245.636516203704</v>
-      </c>
-      <c r="K75" s="10">
-        <v>30536</v>
-      </c>
-      <c r="L75" s="10">
-        <v>4587</v>
-      </c>
-      <c r="M75" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="N75" s="10">
-        <v>14590561</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J75" s="14"/>
       <c r="P75" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q75" s="10">
         <f t="shared" si="5"/>
-        <v>30538</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="10">
-        <v>30557</v>
-      </c>
-      <c r="F76" s="10">
-        <v>896024982</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J76" s="14">
-        <v>43245.641250000001</v>
-      </c>
-      <c r="K76" s="10">
-        <v>30554</v>
-      </c>
-      <c r="L76" s="10">
-        <v>4591</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="N76" s="10">
-        <v>14590588</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J76" s="14"/>
       <c r="P76" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q76" s="10">
         <f t="shared" si="5"/>
-        <v>30557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="10">
-        <v>1</v>
-      </c>
-      <c r="E77" s="10">
-        <v>30555</v>
-      </c>
-      <c r="F77" s="10">
-        <v>896025381</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J77" s="14">
-        <v>43245.641817129632</v>
-      </c>
-      <c r="K77" s="10">
-        <v>30555</v>
-      </c>
-      <c r="L77" s="10">
-        <v>4592</v>
-      </c>
-      <c r="M77" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="N77" s="10">
-        <v>14590589</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J77" s="14"/>
       <c r="P77" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q77" s="10">
         <f t="shared" si="5"/>
-        <v>30555</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="10">
-        <v>1</v>
-      </c>
-      <c r="E78" s="10">
-        <v>30644</v>
-      </c>
-      <c r="F78" s="10">
-        <v>896033330</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J78" s="14">
-        <v>43245.644502314812</v>
-      </c>
-      <c r="K78" s="10">
-        <v>30644</v>
-      </c>
-      <c r="L78" s="10">
-        <v>4593</v>
-      </c>
-      <c r="M78" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="N78" s="10">
-        <v>14590620</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J78" s="14"/>
       <c r="P78" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q78" s="10">
         <f t="shared" si="5"/>
-        <v>30644</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D79" s="10">
-        <v>1</v>
-      </c>
-      <c r="E79" s="10">
-        <v>30635</v>
-      </c>
-      <c r="F79" s="10">
-        <v>896033735</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J79" s="14">
-        <v>43245.644583333335</v>
-      </c>
-      <c r="K79" s="10">
-        <v>30635</v>
-      </c>
-      <c r="L79" s="10">
-        <v>4595</v>
-      </c>
-      <c r="M79" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="N79" s="10">
-        <v>14590621</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J79" s="14"/>
       <c r="P79" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q79" s="10">
         <f t="shared" si="5"/>
-        <v>30635</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="10">
-        <v>1</v>
-      </c>
-      <c r="E80" s="10">
-        <v>30644</v>
-      </c>
-      <c r="F80" s="10">
-        <v>896034392</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J80" s="14">
-        <v>43245.644849537035</v>
-      </c>
-      <c r="K80" s="10">
-        <v>30644</v>
-      </c>
-      <c r="L80" s="10">
-        <v>4594</v>
-      </c>
-      <c r="M80" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="N80" s="10">
-        <v>14590625</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J80" s="14"/>
       <c r="P80" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q80" s="10">
         <f t="shared" si="5"/>
-        <v>30644</v>
+        <v>0</v>
       </c>
       <c r="R80" s="38">
         <f>R82-R81</f>
@@ -17184,7 +15818,7 @@
       </c>
       <c r="S80" s="38">
         <f>S82-S81</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="T80" s="38" t="e">
         <f>S80/R80</f>
@@ -17193,495 +15827,156 @@
       <c r="U80" s="38"/>
       <c r="V80" s="19">
         <f>S80*50</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="W80" s="19"/>
     </row>
-    <row r="81" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="10">
-        <v>1</v>
-      </c>
-      <c r="E81" s="10">
-        <v>30634</v>
-      </c>
-      <c r="F81" s="10">
-        <v>896036069</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J81" s="14">
-        <v>43245.645474537036</v>
-      </c>
-      <c r="K81" s="10">
-        <v>30632</v>
-      </c>
-      <c r="L81" s="10">
-        <v>4596</v>
-      </c>
-      <c r="M81" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="N81" s="10">
-        <v>14590632</v>
-      </c>
+    <row r="81" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J81" s="14"/>
       <c r="P81" s="10">
         <f t="shared" ref="P81:P112" si="6">C81*E81</f>
         <v>0</v>
       </c>
       <c r="Q81" s="10">
         <f t="shared" ref="Q81:Q112" si="7">D81*E81</f>
-        <v>30634</v>
+        <v>0</v>
       </c>
       <c r="R81" s="38">
         <f>SUM(C76:C144)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S81" s="38">
         <f>SUM(P76:P145)</f>
-        <v>581559</v>
-      </c>
-      <c r="T81" s="38">
+        <v>0</v>
+      </c>
+      <c r="T81" s="38" t="e">
         <f>S81/R81</f>
-        <v>30608.36842105263</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U81" s="38"/>
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
     </row>
-    <row r="82" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="10">
-        <v>1</v>
-      </c>
-      <c r="E82" s="10">
-        <v>30655</v>
-      </c>
-      <c r="F82" s="10">
-        <v>896038432</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J82" s="14">
-        <v>43245.646643518521</v>
-      </c>
-      <c r="K82" s="10">
-        <v>30654</v>
-      </c>
-      <c r="L82" s="10">
-        <v>4598</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="N82" s="10">
-        <v>14590637</v>
-      </c>
+    <row r="82" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J82" s="14"/>
       <c r="P82" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q82" s="10">
         <f t="shared" si="7"/>
-        <v>30655</v>
+        <v>0</v>
       </c>
       <c r="R82" s="38">
         <f>SUM(D72:D253)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S82" s="38">
         <f>SUM(Q72:Q1090)</f>
-        <v>581601</v>
-      </c>
-      <c r="T82" s="38">
+        <v>0</v>
+      </c>
+      <c r="T82" s="38" t="e">
         <f>S82/R82</f>
-        <v>30610.57894736842</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U82" s="38"/>
       <c r="V82" s="19">
         <f>R82*71.08</f>
-        <v>1350.52</v>
+        <v>0</v>
       </c>
       <c r="W82" s="19">
         <f>V80-V82</f>
-        <v>749.48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D83" s="10">
-        <v>1</v>
-      </c>
-      <c r="E83" s="10">
-        <v>30652</v>
-      </c>
-      <c r="F83" s="10">
-        <v>896038575</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J83" s="14">
-        <v>43245.64675925926</v>
-      </c>
-      <c r="K83" s="10">
-        <v>30652</v>
-      </c>
-      <c r="L83" s="10">
-        <v>4599</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="N83" s="10">
-        <v>14590641</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J83" s="14"/>
       <c r="P83" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q83" s="10">
         <f t="shared" si="7"/>
-        <v>30652</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="10">
-        <v>30634</v>
-      </c>
-      <c r="F84" s="10">
-        <v>896042785</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J84" s="14">
-        <v>43245.650208333333</v>
-      </c>
-      <c r="K84" s="10">
-        <v>30634</v>
-      </c>
-      <c r="L84" s="10">
-        <v>4602</v>
-      </c>
-      <c r="M84" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="N84" s="10">
-        <v>14590661</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="10:24" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J84" s="14"/>
       <c r="P84" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q84" s="10">
         <f t="shared" si="7"/>
-        <v>30634</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>30613</v>
-      </c>
-      <c r="F85">
-        <v>896043416</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>1</v>
-      </c>
-      <c r="J85" s="8">
-        <v>43245.650925925926</v>
-      </c>
-      <c r="K85">
-        <v>30613</v>
-      </c>
-      <c r="L85">
-        <v>4603</v>
-      </c>
-      <c r="M85" t="s">
-        <v>301</v>
-      </c>
-      <c r="N85">
-        <v>14590664</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J85" s="8"/>
       <c r="P85">
         <f t="shared" si="6"/>
-        <v>30613</v>
+        <v>0</v>
       </c>
       <c r="Q85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>215</v>
-      </c>
-      <c r="B86" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>30611</v>
-      </c>
-      <c r="F86">
-        <v>896043425</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" t="s">
-        <v>0</v>
-      </c>
-      <c r="J86" s="8">
-        <v>43245.650925925926</v>
-      </c>
-      <c r="K86">
-        <v>30611</v>
-      </c>
-      <c r="L86">
-        <v>4600</v>
-      </c>
-      <c r="M86" t="s">
-        <v>300</v>
-      </c>
-      <c r="N86">
-        <v>14590665</v>
-      </c>
+    <row r="86" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J86" s="8"/>
       <c r="P86">
         <f t="shared" si="6"/>
-        <v>61222</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C87" s="19">
-        <v>1</v>
-      </c>
-      <c r="E87" s="19">
-        <v>30604</v>
-      </c>
-      <c r="F87" s="19">
-        <v>896045682</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J87" s="32">
-        <v>43245.653553240743</v>
-      </c>
-      <c r="K87" s="19">
-        <v>30604</v>
-      </c>
-      <c r="L87" s="19">
-        <v>4604</v>
-      </c>
-      <c r="M87" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="N87" s="19">
-        <v>14590693</v>
-      </c>
+    <row r="87" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J87" s="32"/>
       <c r="P87" s="19">
         <f t="shared" si="6"/>
-        <v>30604</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D88" s="19">
-        <v>1</v>
-      </c>
-      <c r="E88" s="19">
-        <v>30637</v>
-      </c>
-      <c r="F88" s="19">
-        <v>896049615</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I88" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J88" s="32">
-        <v>43245.658379629633</v>
-      </c>
-      <c r="K88" s="19">
-        <v>30637</v>
-      </c>
-      <c r="L88" s="19">
-        <v>4608</v>
-      </c>
-      <c r="M88" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="N88" s="19">
-        <v>14590712</v>
-      </c>
+    <row r="88" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J88" s="32"/>
       <c r="P88" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q88" s="19">
         <f t="shared" si="7"/>
-        <v>30637</v>
+        <v>0</v>
       </c>
       <c r="R88" s="38">
         <f>R90-R89</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S88" s="38">
         <f>S90-S89</f>
-        <v>183253</v>
-      </c>
-      <c r="T88" s="38">
+        <v>0</v>
+      </c>
+      <c r="T88" s="38" t="e">
         <f>S88/R88</f>
-        <v>30542.166666666668</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U88" s="38"/>
       <c r="V88" s="19">
         <f>S88*50</f>
-        <v>9162650</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C89" s="19">
-        <v>1</v>
-      </c>
-      <c r="E89" s="19">
-        <v>30615</v>
-      </c>
-      <c r="F89" s="19">
-        <v>896049992</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J89" s="32">
-        <v>43245.658634259256</v>
-      </c>
-      <c r="K89" s="19">
-        <v>30615</v>
-      </c>
-      <c r="L89" s="19">
-        <v>4609</v>
-      </c>
-      <c r="M89" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="N89" s="19">
-        <v>14590713</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J89" s="32"/>
       <c r="P89" s="19">
         <f t="shared" si="6"/>
-        <v>30615</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="19">
         <f t="shared" si="7"/>
@@ -17689,58 +15984,23 @@
       </c>
       <c r="R89" s="38">
         <f>SUM(C84:C152)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S89" s="38">
         <f>SUM(P84:P153)</f>
-        <v>581559</v>
-      </c>
-      <c r="T89" s="38">
+        <v>0</v>
+      </c>
+      <c r="T89" s="38" t="e">
         <f>S89/R89</f>
-        <v>30608.36842105263</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U89" s="38"/>
     </row>
-    <row r="90" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C90" s="19">
-        <v>2</v>
-      </c>
-      <c r="E90" s="19">
-        <v>30598</v>
-      </c>
-      <c r="F90" s="19">
-        <v>896052147</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J90" s="32">
-        <v>43245.660405092596</v>
-      </c>
-      <c r="K90" s="19">
-        <v>30598</v>
-      </c>
-      <c r="L90" s="19">
-        <v>4607</v>
-      </c>
-      <c r="M90" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="N90" s="19">
-        <v>14590721</v>
-      </c>
+    <row r="90" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J90" s="32"/>
       <c r="P90" s="19">
         <f t="shared" si="6"/>
-        <v>61196</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="19">
         <f t="shared" si="7"/>
@@ -17748,846 +16008,221 @@
       </c>
       <c r="R90" s="38">
         <f>SUM(D66:D261)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S90" s="38">
         <f>SUM(Q66:Q1098)</f>
-        <v>764812</v>
-      </c>
-      <c r="T90" s="38">
+        <v>0</v>
+      </c>
+      <c r="T90" s="38" t="e">
         <f>S90/R90</f>
-        <v>30592.48</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U90" s="38"/>
       <c r="V90" s="19">
         <f>R90*71.08</f>
-        <v>1777</v>
+        <v>0</v>
       </c>
       <c r="W90" s="19">
         <f>V88-V90</f>
-        <v>9160873</v>
-      </c>
-      <c r="X90" s="19">
+        <v>0</v>
+      </c>
+      <c r="X90" s="19" t="e">
         <f>W90/R90</f>
-        <v>366434.92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="19">
-        <v>1</v>
-      </c>
-      <c r="E91" s="19">
-        <v>30638</v>
-      </c>
-      <c r="F91" s="19">
-        <v>896064508</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I91" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J91" s="32">
-        <v>43245.673877314817</v>
-      </c>
-      <c r="K91" s="19">
-        <v>30636</v>
-      </c>
-      <c r="L91" s="19">
-        <v>4612</v>
-      </c>
-      <c r="M91" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="N91" s="19">
-        <v>14590789</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J91" s="32"/>
       <c r="P91" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q91" s="19">
         <f t="shared" si="7"/>
-        <v>30638</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="19">
-        <v>1</v>
-      </c>
-      <c r="E92" s="19">
-        <v>30637</v>
-      </c>
-      <c r="F92" s="19">
-        <v>896067644</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H92" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I92" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J92" s="32">
-        <v>43245.67800925926</v>
-      </c>
-      <c r="K92" s="19">
-        <v>30637</v>
-      </c>
-      <c r="L92" s="19">
-        <v>4614</v>
-      </c>
-      <c r="M92" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="N92" s="19">
-        <v>14590813</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J92" s="32"/>
       <c r="P92" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q92" s="19">
         <f t="shared" si="7"/>
-        <v>30637</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="19">
-        <v>1</v>
-      </c>
-      <c r="E93" s="19">
-        <v>30621</v>
-      </c>
-      <c r="F93" s="19">
-        <v>896081108</v>
-      </c>
-      <c r="G93" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J93" s="32">
-        <v>43245.730370370373</v>
-      </c>
-      <c r="K93" s="19">
-        <v>30621</v>
-      </c>
-      <c r="L93" s="19">
-        <v>4619</v>
-      </c>
-      <c r="M93" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="N93" s="19">
-        <v>14590928</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J93" s="32"/>
       <c r="P93" s="19">
         <f t="shared" si="6"/>
-        <v>30621</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" s="19">
-        <v>1</v>
-      </c>
-      <c r="E94" s="19">
-        <v>30620</v>
-      </c>
-      <c r="F94" s="19">
-        <v>896081155</v>
-      </c>
-      <c r="G94" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J94" s="32">
-        <v>43245.730567129627</v>
-      </c>
-      <c r="K94" s="19">
-        <v>30620</v>
-      </c>
-      <c r="L94" s="19">
-        <v>4620</v>
-      </c>
-      <c r="M94" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="N94" s="19">
-        <v>14590929</v>
-      </c>
+    <row r="94" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J94" s="32"/>
       <c r="P94" s="19">
         <f t="shared" si="6"/>
-        <v>30620</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D95" s="19">
-        <v>1</v>
-      </c>
-      <c r="E95" s="19">
-        <v>30634</v>
-      </c>
-      <c r="F95" s="19">
-        <v>896082880</v>
-      </c>
-      <c r="G95" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J95" s="32">
-        <v>43245.747870370367</v>
-      </c>
-      <c r="K95" s="19">
-        <v>30634</v>
-      </c>
-      <c r="L95" s="19">
-        <v>4626</v>
-      </c>
-      <c r="M95" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="N95" s="19">
-        <v>14590974</v>
-      </c>
+    <row r="95" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J95" s="32"/>
       <c r="P95" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q95" s="19">
         <f t="shared" si="7"/>
-        <v>30634</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="19">
-        <v>1</v>
-      </c>
-      <c r="E96" s="19">
-        <v>30622</v>
-      </c>
-      <c r="F96" s="19">
-        <v>896083347</v>
-      </c>
-      <c r="G96" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I96" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J96" s="32">
-        <v>43245.752905092595</v>
-      </c>
-      <c r="K96" s="19">
-        <v>30622</v>
-      </c>
-      <c r="L96" s="19">
-        <v>4627</v>
-      </c>
-      <c r="M96" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="N96" s="19">
-        <v>14590983</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J96" s="32"/>
       <c r="P96" s="19">
         <f t="shared" si="6"/>
-        <v>30622</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D97" s="19">
-        <v>1</v>
-      </c>
-      <c r="E97" s="19">
-        <v>30632</v>
-      </c>
-      <c r="F97" s="19">
-        <v>896084739</v>
-      </c>
-      <c r="G97" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I97" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J97" s="32">
-        <v>43245.769756944443</v>
-      </c>
-      <c r="K97" s="19">
-        <v>30632</v>
-      </c>
-      <c r="L97" s="19">
-        <v>4629</v>
-      </c>
-      <c r="M97" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="N97" s="19">
-        <v>14591012</v>
-      </c>
+    <row r="97" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J97" s="32"/>
       <c r="P97" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q97" s="19">
         <f t="shared" si="7"/>
-        <v>30632</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D98" s="19">
-        <v>1</v>
-      </c>
-      <c r="E98" s="19">
-        <v>30637</v>
-      </c>
-      <c r="F98" s="19">
-        <v>896085003</v>
-      </c>
-      <c r="G98" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I98" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J98" s="32">
-        <v>43245.772476851853</v>
-      </c>
-      <c r="K98" s="19">
-        <v>30635</v>
-      </c>
-      <c r="L98" s="19">
-        <v>4630</v>
-      </c>
-      <c r="M98" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="N98" s="19">
-        <v>14591016</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="10:24" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J98" s="32"/>
       <c r="P98" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q98" s="19">
         <f t="shared" si="7"/>
-        <v>30637</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>215</v>
-      </c>
-      <c r="B99" t="s">
-        <v>216</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>30625</v>
-      </c>
-      <c r="F99">
-        <v>896085328</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>1</v>
-      </c>
-      <c r="J99" s="8">
-        <v>43245.778703703705</v>
-      </c>
-      <c r="K99">
-        <v>30625</v>
-      </c>
-      <c r="L99">
-        <v>4631</v>
-      </c>
-      <c r="M99" t="s">
-        <v>314</v>
-      </c>
-      <c r="N99">
-        <v>14591017</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J99" s="8"/>
       <c r="P99">
         <f t="shared" si="6"/>
-        <v>30625</v>
+        <v>0</v>
       </c>
       <c r="Q99">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>215</v>
-      </c>
-      <c r="B100" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>30624</v>
-      </c>
-      <c r="F100">
-        <v>896085649</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1</v>
-      </c>
-      <c r="J100" s="8">
-        <v>43245.787557870368</v>
-      </c>
-      <c r="K100">
-        <v>30624</v>
-      </c>
-      <c r="L100">
-        <v>4632</v>
-      </c>
-      <c r="M100" t="s">
-        <v>315</v>
-      </c>
-      <c r="N100">
-        <v>14591021</v>
-      </c>
+    <row r="100" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J100" s="8"/>
       <c r="P100">
         <f t="shared" si="6"/>
-        <v>30624</v>
+        <v>0</v>
       </c>
       <c r="Q100">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>215</v>
-      </c>
-      <c r="B101" t="s">
-        <v>216</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>30602</v>
-      </c>
-      <c r="F101">
-        <v>896086847</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" t="s">
-        <v>0</v>
-      </c>
-      <c r="J101" s="8">
-        <v>43245.799884259257</v>
-      </c>
-      <c r="K101">
-        <v>30602</v>
-      </c>
-      <c r="L101">
-        <v>4625</v>
-      </c>
-      <c r="M101" t="s">
-        <v>316</v>
-      </c>
-      <c r="N101">
-        <v>14591031</v>
-      </c>
+    <row r="101" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J101" s="8"/>
       <c r="P101">
         <f t="shared" si="6"/>
-        <v>30602</v>
+        <v>0</v>
       </c>
       <c r="Q101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>215</v>
-      </c>
-      <c r="B102" t="s">
-        <v>216</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>30601</v>
-      </c>
-      <c r="F102">
-        <v>896086858</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" t="s">
-        <v>0</v>
-      </c>
-      <c r="J102" s="8">
-        <v>43245.799884259257</v>
-      </c>
-      <c r="K102">
-        <v>30601</v>
-      </c>
-      <c r="L102">
-        <v>4622</v>
-      </c>
-      <c r="M102" t="s">
-        <v>317</v>
-      </c>
-      <c r="N102">
-        <v>14591032</v>
-      </c>
+    <row r="102" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J102" s="8"/>
       <c r="P102">
         <f t="shared" si="6"/>
-        <v>30601</v>
+        <v>0</v>
       </c>
       <c r="Q102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>30601</v>
-      </c>
-      <c r="F103">
-        <v>896086859</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" t="s">
-        <v>0</v>
-      </c>
-      <c r="J103" s="8">
-        <v>43245.799884259257</v>
-      </c>
-      <c r="K103">
-        <v>30601</v>
-      </c>
-      <c r="L103">
-        <v>4623</v>
-      </c>
-      <c r="M103" t="s">
-        <v>318</v>
-      </c>
-      <c r="N103">
-        <v>14591033</v>
-      </c>
+    <row r="103" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J103" s="8"/>
       <c r="P103">
         <f t="shared" si="6"/>
-        <v>30601</v>
+        <v>0</v>
       </c>
       <c r="Q103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>215</v>
-      </c>
-      <c r="B104" t="s">
-        <v>216</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>30601</v>
-      </c>
-      <c r="F104">
-        <v>896086917</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J104" s="8">
-        <v>43245.799988425926</v>
-      </c>
-      <c r="K104">
-        <v>30601</v>
-      </c>
-      <c r="L104">
-        <v>4628</v>
-      </c>
-      <c r="M104" t="s">
-        <v>319</v>
-      </c>
-      <c r="N104">
-        <v>14591034</v>
-      </c>
+    <row r="104" spans="10:24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J104" s="8"/>
       <c r="P104">
         <f t="shared" si="6"/>
-        <v>30601</v>
+        <v>0</v>
       </c>
       <c r="Q104">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1">
-        <v>30600</v>
-      </c>
-      <c r="F105" s="1">
-        <v>896086926</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J105" s="5">
-        <v>43245.799988425926</v>
-      </c>
-      <c r="K105" s="1">
-        <v>30600</v>
-      </c>
-      <c r="L105" s="1">
-        <v>4624</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="N105" s="1">
-        <v>14591035</v>
-      </c>
+    <row r="105" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J105" s="5"/>
       <c r="O105" s="22"/>
       <c r="P105" s="22">
         <f t="shared" si="6"/>
-        <v>30600</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1">
-        <v>30596</v>
-      </c>
-      <c r="F106" s="1">
-        <v>896087025</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J106" s="5">
-        <v>43245.800081018519</v>
-      </c>
-      <c r="K106" s="1">
-        <v>30596</v>
-      </c>
-      <c r="L106" s="1">
-        <v>4633</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="N106" s="1">
-        <v>14591036</v>
-      </c>
+    <row r="106" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J106" s="5"/>
       <c r="O106" s="22"/>
       <c r="P106" s="22">
         <f t="shared" si="6"/>
-        <v>30596</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1">
-        <v>30596</v>
-      </c>
-      <c r="F107" s="1">
-        <v>896087372</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J107" s="5">
-        <v>43245.801539351851</v>
-      </c>
-      <c r="K107" s="1">
-        <v>30596</v>
-      </c>
-      <c r="L107" s="1">
-        <v>4634</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N107" s="1">
-        <v>14591041</v>
-      </c>
+    <row r="107" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J107" s="5"/>
       <c r="O107" s="22"/>
       <c r="P107" s="22">
         <f t="shared" si="6"/>
-        <v>30596</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J108" s="5"/>
       <c r="O108" s="22"/>
       <c r="P108" s="22">
@@ -18599,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J109" s="5"/>
       <c r="O109" s="22"/>
       <c r="P109" s="22">
@@ -18612,22 +16247,22 @@
       </c>
       <c r="R109" s="1">
         <f>R111-R110</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="S109" s="1">
         <f>S111-S110</f>
-        <v>-214177</v>
-      </c>
-      <c r="T109" s="1">
+        <v>0</v>
+      </c>
+      <c r="T109" s="1" t="e">
         <f>S109/R109</f>
-        <v>26772.125</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V109" s="1">
         <f>S109*50</f>
-        <v>-10708850</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J110" s="5"/>
       <c r="O110" s="22"/>
       <c r="P110" s="22">
@@ -18640,18 +16275,18 @@
       </c>
       <c r="R110" s="1">
         <f>SUM(C98:C146)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S110" s="1">
         <f>SUM(P99:P147)</f>
-        <v>275446</v>
-      </c>
-      <c r="T110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="1" t="e">
         <f>S110/R110</f>
-        <v>30605.111111111109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J111" s="5"/>
       <c r="O111" s="22"/>
       <c r="P111" s="22">
@@ -18664,30 +16299,30 @@
       </c>
       <c r="R111" s="1">
         <f>SUM(D98:D151)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="1">
         <f>SUM(Q97:Q141)</f>
-        <v>61269</v>
-      </c>
-      <c r="T111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1" t="e">
         <f>S111/R111</f>
-        <v>61269</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V111" s="1">
         <f>R111*67.08</f>
-        <v>67.08</v>
+        <v>0</v>
       </c>
       <c r="W111" s="1">
         <f>V109-V111</f>
-        <v>-10708917.08</v>
-      </c>
-      <c r="X111" s="1">
+        <v>0</v>
+      </c>
+      <c r="X111" s="1" t="e">
         <f>W111/R111</f>
-        <v>-10708917.08</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="J112" s="5"/>
       <c r="O112" s="22"/>
       <c r="P112" s="22">
@@ -18700,7 +16335,7 @@
       </c>
       <c r="V112" s="1">
         <f>SUM(V101:V110)</f>
-        <v>-10708850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -18752,15 +16387,15 @@
       </c>
       <c r="R116" s="1">
         <f>R118-R117</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S116" s="1">
         <f>S118-S117</f>
         <v>0</v>
       </c>
-      <c r="T116" s="1">
+      <c r="T116" s="1" t="e">
         <f>S116/R116</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V116" s="1">
         <f>S116*50</f>
@@ -18780,15 +16415,15 @@
       </c>
       <c r="R117" s="1">
         <f>SUM(C105:C136)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S117" s="1">
         <f>SUM(P112:P136)</f>
         <v>0</v>
       </c>
-      <c r="T117" s="1">
+      <c r="T117" s="1" t="e">
         <f>S117/R117</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="118" spans="10:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
